--- a/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.001265923316536</v>
+      </c>
+      <c r="D3">
+        <v>0.9987611362530835</v>
+      </c>
+      <c r="E3">
         <v>1.007479220619864</v>
-      </c>
-      <c r="D3">
-        <v>0.9967110786392752</v>
-      </c>
-      <c r="E3">
-        <v>0.9984801509501645</v>
       </c>
       <c r="F3">
         <v>1.007479220619864</v>
       </c>
       <c r="G3">
-        <v>0.9987611362530835</v>
+        <v>0.9970838296682837</v>
       </c>
       <c r="H3">
-        <v>1.001265923316536</v>
+        <v>1.002263644948268</v>
       </c>
       <c r="I3">
-        <v>1.007479220619864</v>
+        <v>0.9974068278004922</v>
       </c>
       <c r="J3">
         <v>0.9967110786392752</v>
       </c>
       <c r="K3">
-        <v>0.9974068278004922</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="L3">
-        <v>1.002263644948268</v>
+        <v>0.9967110786392752</v>
       </c>
       <c r="M3">
-        <v>0.9970838296682837</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="N3">
         <v>1.007479220619864</v>
@@ -824,7 +716,7 @@
         <v>0.9999314765244957</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.002406834468507</v>
+      </c>
+      <c r="D4">
+        <v>0.9976374295971374</v>
+      </c>
+      <c r="E4">
         <v>1.014508918581146</v>
-      </c>
-      <c r="D4">
-        <v>0.9936588932057756</v>
-      </c>
-      <c r="E4">
-        <v>0.9969679277897998</v>
       </c>
       <c r="F4">
         <v>1.014508918581146</v>
       </c>
       <c r="G4">
-        <v>0.9976374295971374</v>
+        <v>0.9943899021710558</v>
       </c>
       <c r="H4">
-        <v>1.002406834468507</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="I4">
-        <v>1.014508918581146</v>
+        <v>0.9949699586434895</v>
       </c>
       <c r="J4">
         <v>0.9936588932057756</v>
       </c>
       <c r="K4">
-        <v>0.9949699586434895</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="L4">
-        <v>1.00441020513607</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="M4">
-        <v>0.9943899021710558</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="N4">
         <v>1.014508918581146</v>
@@ -895,7 +787,7 @@
         <v>0.9998687586991226</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.00487652594314</v>
+      </c>
+      <c r="D5">
+        <v>0.9953685156798773</v>
+      </c>
+      <c r="E5">
         <v>1.027003239377252</v>
-      </c>
-      <c r="D5">
-        <v>0.9874610085842321</v>
-      </c>
-      <c r="E5">
-        <v>0.9949831284655811</v>
       </c>
       <c r="F5">
         <v>1.027003239377252</v>
       </c>
       <c r="G5">
-        <v>0.9953685156798773</v>
+        <v>0.9890577669250533</v>
       </c>
       <c r="H5">
-        <v>1.00487652594314</v>
+        <v>1.008184537478926</v>
       </c>
       <c r="I5">
-        <v>1.027003239377252</v>
+        <v>0.9906582106878519</v>
       </c>
       <c r="J5">
         <v>0.9874610085842321</v>
       </c>
       <c r="K5">
-        <v>0.9906582106878519</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="L5">
-        <v>1.008184537478926</v>
+        <v>0.9874610085842321</v>
       </c>
       <c r="M5">
-        <v>0.989057766925053</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="N5">
         <v>1.027003239377252</v>
@@ -966,7 +858,7 @@
         <v>0.999699116642739</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.007264583092434</v>
+      </c>
+      <c r="D6">
+        <v>0.9931742669400832</v>
+      </c>
+      <c r="E6">
         <v>1.039218443932764</v>
-      </c>
-      <c r="D6">
-        <v>0.9813808582936223</v>
-      </c>
-      <c r="E6">
-        <v>0.9930056534270264</v>
       </c>
       <c r="F6">
         <v>1.039218443932764</v>
       </c>
       <c r="G6">
-        <v>0.9931742669400832</v>
+        <v>0.9838591919332281</v>
       </c>
       <c r="H6">
-        <v>1.007264583092434</v>
+        <v>1.011883745235539</v>
       </c>
       <c r="I6">
-        <v>1.039218443932764</v>
+        <v>0.9864565315961366</v>
       </c>
       <c r="J6">
         <v>0.9813808582936223</v>
       </c>
       <c r="K6">
-        <v>0.9864565315961366</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="L6">
-        <v>1.011883745235539</v>
+        <v>0.9813808582936223</v>
       </c>
       <c r="M6">
-        <v>0.9838591919332281</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="N6">
         <v>1.039218443932764</v>
@@ -1037,7 +929,7 @@
         <v>0.9995304093063541</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998497590001298</v>
+        <v>1.000158867812154</v>
       </c>
       <c r="D7">
-        <v>0.9997197167459833</v>
+        <v>0.9999168748972007</v>
       </c>
       <c r="E7">
+        <v>0.9998497590001297</v>
+      </c>
+      <c r="F7">
+        <v>0.9998497590001297</v>
+      </c>
+      <c r="G7">
+        <v>0.9998248654012889</v>
+      </c>
+      <c r="H7">
+        <v>0.9999446055374834</v>
+      </c>
+      <c r="I7">
+        <v>1.00006177632645</v>
+      </c>
+      <c r="J7">
+        <v>0.9997197167459836</v>
+      </c>
+      <c r="K7">
+        <v>0.9998497590001297</v>
+      </c>
+      <c r="L7">
+        <v>0.9997197167459836</v>
+      </c>
+      <c r="M7">
         <v>1.000320980767071</v>
       </c>
-      <c r="F7">
-        <v>0.9998497590001298</v>
-      </c>
-      <c r="G7">
-        <v>0.9999168748972009</v>
-      </c>
-      <c r="H7">
-        <v>1.000158867812154</v>
-      </c>
-      <c r="I7">
-        <v>0.9998497590001298</v>
-      </c>
-      <c r="J7">
-        <v>0.9997197167459833</v>
-      </c>
-      <c r="K7">
-        <v>1.00006177632645</v>
-      </c>
-      <c r="L7">
-        <v>0.9999446055374837</v>
-      </c>
-      <c r="M7">
-        <v>0.999824865401289</v>
-      </c>
       <c r="N7">
-        <v>0.9998497590001298</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="O7">
         <v>1.000320980767071</v>
@@ -1105,10 +997,10 @@
         <v>0.999931418082103</v>
       </c>
       <c r="W7">
-        <v>0.9999746808109702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999746808109704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994621346108102</v>
+        <v>1.000243422951854</v>
       </c>
       <c r="D8">
-        <v>0.9997110926159409</v>
+        <v>0.9998710405359807</v>
       </c>
       <c r="E8">
+        <v>0.9994621346108097</v>
+      </c>
+      <c r="F8">
+        <v>0.9994621346108097</v>
+      </c>
+      <c r="G8">
+        <v>0.9998147815237165</v>
+      </c>
+      <c r="H8">
+        <v>0.999789967839379</v>
+      </c>
+      <c r="I8">
+        <v>1.000196100839019</v>
+      </c>
+      <c r="J8">
+        <v>0.9997110926159413</v>
+      </c>
+      <c r="K8">
+        <v>0.9994621346108097</v>
+      </c>
+      <c r="L8">
+        <v>0.9997110926159413</v>
+      </c>
+      <c r="M8">
         <v>1.000646783850277</v>
       </c>
-      <c r="F8">
-        <v>0.9994621346108102</v>
-      </c>
-      <c r="G8">
-        <v>0.9998710405359807</v>
-      </c>
-      <c r="H8">
-        <v>1.000243422951854</v>
-      </c>
-      <c r="I8">
-        <v>0.9994621346108102</v>
-      </c>
-      <c r="J8">
-        <v>0.9997110926159409</v>
-      </c>
-      <c r="K8">
-        <v>1.00019610083902</v>
-      </c>
-      <c r="L8">
-        <v>0.9997899678393787</v>
-      </c>
-      <c r="M8">
-        <v>0.9998147815237167</v>
-      </c>
       <c r="N8">
-        <v>0.9994621346108102</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="O8">
         <v>1.000646783850277</v>
@@ -1161,7 +1053,7 @@
         <v>1.000258912193129</v>
       </c>
       <c r="R8">
-        <v>0.9999400036923428</v>
+        <v>0.9999400036923426</v>
       </c>
       <c r="S8">
         <v>1.0000763056674</v>
@@ -1176,10 +1068,10 @@
         <v>0.9998306372447636</v>
       </c>
       <c r="W8">
-        <v>0.9999669155958723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999669155958721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,40 +1079,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9990080388634267</v>
+        <v>1.00003395747452</v>
       </c>
       <c r="D9">
-        <v>1.000396982951842</v>
+        <v>0.999974473884071</v>
       </c>
       <c r="E9">
-        <v>1.00055188611362</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="F9">
-        <v>0.9990080388634267</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="G9">
-        <v>0.999974473884071</v>
+        <v>1.000226979460058</v>
       </c>
       <c r="H9">
-        <v>1.00003395747452</v>
+        <v>0.9995945964503098</v>
       </c>
       <c r="I9">
-        <v>0.9990080388634267</v>
+        <v>1.000326596950712</v>
       </c>
       <c r="J9">
         <v>1.000396982951842</v>
       </c>
       <c r="K9">
-        <v>1.000326596950712</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="L9">
-        <v>0.9995945964503098</v>
+        <v>1.000396982951842</v>
       </c>
       <c r="M9">
-        <v>1.000226979460058</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="N9">
-        <v>0.9990080388634267</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="O9">
         <v>1.00055188611362</v>
@@ -1232,7 +1124,7 @@
         <v>1.000263179998846</v>
       </c>
       <c r="R9">
-        <v>0.9999856359762961</v>
+        <v>0.9999856359762962</v>
       </c>
       <c r="S9">
         <v>1.000307780983178</v>
@@ -1250,7 +1142,7 @@
         <v>1.00001418901857</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000370388488294</v>
+      </c>
+      <c r="D10">
+        <v>0.9997976417509227</v>
+      </c>
+      <c r="E10">
         <v>0.9980177367932583</v>
-      </c>
-      <c r="D10">
-        <v>1.000099388044863</v>
-      </c>
-      <c r="E10">
-        <v>1.001568509281302</v>
       </c>
       <c r="F10">
         <v>0.9980177367932583</v>
       </c>
       <c r="G10">
-        <v>0.9997976417509225</v>
+        <v>1.000034523422218</v>
       </c>
       <c r="H10">
-        <v>1.000370388488293</v>
+        <v>0.9992075800409874</v>
       </c>
       <c r="I10">
-        <v>0.9980177367932583</v>
+        <v>1.000679449752607</v>
       </c>
       <c r="J10">
         <v>1.000099388044863</v>
       </c>
       <c r="K10">
-        <v>1.000679449752607</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="L10">
-        <v>0.9992075800409874</v>
+        <v>1.000099388044863</v>
       </c>
       <c r="M10">
-        <v>1.000034523422218</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="N10">
         <v>0.9980177367932583</v>
@@ -1312,7 +1204,7 @@
         <v>0.9998952113731409</v>
       </c>
       <c r="U10">
-        <v>0.9998708189675862</v>
+        <v>0.9998708189675863</v>
       </c>
       <c r="V10">
         <v>0.9995002025327206</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999719021968063</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,49 +1221,49 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9999173736351101</v>
+      </c>
+      <c r="D11">
+        <v>0.9999979920158375</v>
+      </c>
+      <c r="E11">
         <v>0.9962192039899348</v>
-      </c>
-      <c r="D11">
-        <v>1.002057596536896</v>
-      </c>
-      <c r="E11">
-        <v>1.001780038078882</v>
       </c>
       <c r="F11">
         <v>0.9962192039899348</v>
       </c>
       <c r="G11">
-        <v>0.9999979920158375</v>
+        <v>1.001175098971444</v>
       </c>
       <c r="H11">
-        <v>0.9999173736351104</v>
+        <v>0.9984289376874705</v>
       </c>
       <c r="I11">
-        <v>0.9962192039899348</v>
+        <v>1.001219138402376</v>
       </c>
       <c r="J11">
         <v>1.002057596536896</v>
       </c>
       <c r="K11">
-        <v>1.001219138402376</v>
+        <v>0.9962192039899348</v>
       </c>
       <c r="L11">
-        <v>0.9984289376874705</v>
+        <v>1.002057596536896</v>
       </c>
       <c r="M11">
-        <v>1.001175098971444</v>
+        <v>1.001780038078881</v>
       </c>
       <c r="N11">
         <v>0.9962192039899348</v>
       </c>
       <c r="O11">
-        <v>1.001780038078882</v>
+        <v>1.001780038078881</v>
       </c>
       <c r="P11">
         <v>1.001918817307889</v>
       </c>
       <c r="Q11">
-        <v>1.00088901504736</v>
+        <v>1.000889015047359</v>
       </c>
       <c r="R11">
         <v>1.000018946201904</v>
@@ -1383,16 +1275,16 @@
         <v>1.000018946201904</v>
       </c>
       <c r="U11">
-        <v>1.000013707655388</v>
+        <v>1.000013707655387</v>
       </c>
       <c r="V11">
-        <v>0.9992548069222972</v>
+        <v>0.999254806922297</v>
       </c>
       <c r="W11">
         <v>1.000099422414744</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9972790170282894</v>
+      </c>
+      <c r="D12">
+        <v>1.004995445085638</v>
+      </c>
+      <c r="E12">
         <v>1.012353087906899</v>
-      </c>
-      <c r="D12">
-        <v>0.9842976226294291</v>
-      </c>
-      <c r="E12">
-        <v>0.9877932451931217</v>
       </c>
       <c r="F12">
         <v>1.012353087906899</v>
       </c>
       <c r="G12">
-        <v>1.004995445085638</v>
+        <v>0.9958031236306705</v>
       </c>
       <c r="H12">
-        <v>0.9972790170282894</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="I12">
-        <v>1.012353087906899</v>
+        <v>0.99681547564494</v>
       </c>
       <c r="J12">
         <v>0.9842976226294291</v>
       </c>
       <c r="K12">
-        <v>0.99681547564494</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>0.9842976226294291</v>
       </c>
       <c r="M12">
-        <v>0.9958031236306706</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="N12">
         <v>1.012353087906899</v>
       </c>
       <c r="O12">
-        <v>0.9877932451931217</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="P12">
         <v>0.9860454339112754</v>
       </c>
       <c r="Q12">
-        <v>0.9963943451393801</v>
+        <v>0.99639434513938</v>
       </c>
       <c r="R12">
         <v>0.9948146519098167</v>
@@ -1451,19 +1343,19 @@
         <v>0.9923621043027296</v>
       </c>
       <c r="T12">
-        <v>0.9948146519098167</v>
+        <v>0.9948146519098165</v>
       </c>
       <c r="U12">
-        <v>0.9973598502037722</v>
+        <v>0.9973598502037719</v>
       </c>
       <c r="V12">
-        <v>1.000358497744398</v>
+        <v>1.000358497744397</v>
       </c>
       <c r="W12">
         <v>0.9986232422136043</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.006771035746939</v>
+      </c>
+      <c r="D13">
+        <v>0.9911394897583976</v>
+      </c>
+      <c r="E13">
         <v>1.001769513228698</v>
-      </c>
-      <c r="D13">
-        <v>1.008235246009658</v>
-      </c>
-      <c r="E13">
-        <v>1.012417350723668</v>
       </c>
       <c r="F13">
         <v>1.001769513228698</v>
       </c>
       <c r="G13">
-        <v>0.9911394897583975</v>
+        <v>0.9971331293955223</v>
       </c>
       <c r="H13">
-        <v>1.006771035746939</v>
+        <v>0.9937204182804564</v>
       </c>
       <c r="I13">
-        <v>1.001769513228698</v>
+        <v>0.9984600934298319</v>
       </c>
       <c r="J13">
         <v>1.008235246009658</v>
       </c>
       <c r="K13">
-        <v>0.9984600934298319</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804563</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="M13">
-        <v>0.9971331293955223</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="N13">
         <v>1.001769513228698</v>
@@ -1534,7 +1426,7 @@
         <v>1.001205784571646</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.6357386469968241</v>
+      </c>
+      <c r="D14">
+        <v>1.200402461244877</v>
+      </c>
+      <c r="E14">
         <v>0.4456680743781916</v>
-      </c>
-      <c r="D14">
-        <v>1.987291489559742</v>
-      </c>
-      <c r="E14">
-        <v>0.7094658101932654</v>
       </c>
       <c r="F14">
         <v>0.4456680743781916</v>
       </c>
       <c r="G14">
-        <v>1.200402461244876</v>
+        <v>1.62568492752117</v>
       </c>
       <c r="H14">
-        <v>0.6357386469968243</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="I14">
-        <v>0.4456680743781916</v>
+        <v>1.159279919901514</v>
       </c>
       <c r="J14">
         <v>1.987291489559742</v>
       </c>
       <c r="K14">
-        <v>1.159279919901514</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="L14">
-        <v>0.7807582616836948</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="M14">
-        <v>1.62568492752117</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="N14">
         <v>0.4456680743781916</v>
@@ -1584,7 +1476,7 @@
         <v>1.348378649876504</v>
       </c>
       <c r="Q14">
-        <v>0.9549341357190709</v>
+        <v>0.954934135719071</v>
       </c>
       <c r="R14">
         <v>1.047475124710399</v>
@@ -1605,7 +1497,7 @@
         <v>1.06803619893491</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9111403904141306</v>
+      </c>
+      <c r="D15">
+        <v>1.059186727830439</v>
+      </c>
+      <c r="E15">
         <v>0.8001049906340567</v>
-      </c>
-      <c r="D15">
-        <v>1.220094472832538</v>
-      </c>
-      <c r="E15">
-        <v>0.956837608256232</v>
       </c>
       <c r="F15">
         <v>0.8001049906340567</v>
       </c>
       <c r="G15">
-        <v>1.059186727830439</v>
+        <v>1.155875155806751</v>
       </c>
       <c r="H15">
-        <v>0.9111403904141306</v>
+        <v>0.9342608909187008</v>
       </c>
       <c r="I15">
-        <v>0.8001049906340567</v>
+        <v>1.064226706261459</v>
       </c>
       <c r="J15">
         <v>1.220094472832538</v>
       </c>
       <c r="K15">
-        <v>1.064226706261459</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="L15">
-        <v>0.9342608909187008</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="M15">
-        <v>1.155875155806751</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="N15">
         <v>0.8001049906340567</v>
@@ -1676,7 +1568,7 @@
         <v>1.012715867869288</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9990578801361627</v>
+        <v>1.026858734668049</v>
       </c>
       <c r="D16">
-        <v>0.9993718849098129</v>
+        <v>0.9758369989772253</v>
       </c>
       <c r="E16">
-        <v>1.000806786820845</v>
+        <v>1.136541479230731</v>
       </c>
       <c r="F16">
-        <v>0.9990578801361627</v>
+        <v>1.136541479230731</v>
       </c>
       <c r="G16">
-        <v>0.9999757943779153</v>
+        <v>0.9411523923099812</v>
       </c>
       <c r="H16">
-        <v>1.000250745121097</v>
+        <v>1.041988759653279</v>
       </c>
       <c r="I16">
-        <v>0.9990578801361627</v>
+        <v>0.9530826030166232</v>
       </c>
       <c r="J16">
-        <v>0.9993718849098129</v>
+        <v>0.9298906180552243</v>
       </c>
       <c r="K16">
-        <v>1.000366017212265</v>
+        <v>1.136541479230731</v>
       </c>
       <c r="L16">
-        <v>0.9997737076151757</v>
+        <v>0.9298906180552243</v>
       </c>
       <c r="M16">
-        <v>0.9997699614273682</v>
+        <v>0.9778480483613802</v>
       </c>
       <c r="N16">
-        <v>0.9990578801361627</v>
+        <v>1.136541479230731</v>
       </c>
       <c r="O16">
-        <v>1.000806786820845</v>
+        <v>0.9778480483613802</v>
       </c>
       <c r="P16">
-        <v>1.000089335865329</v>
+        <v>0.9538693332083023</v>
       </c>
       <c r="Q16">
-        <v>1.00039129059938</v>
+        <v>0.9768425236693028</v>
       </c>
       <c r="R16">
-        <v>0.9997455172889403</v>
+        <v>1.014760048549112</v>
       </c>
       <c r="S16">
-        <v>1.000051488702858</v>
+        <v>0.9611918884646099</v>
       </c>
       <c r="T16">
-        <v>0.9997455172889403</v>
+        <v>1.014760048549112</v>
       </c>
       <c r="U16">
-        <v>0.999803086561184</v>
+        <v>1.00502928615614</v>
       </c>
       <c r="V16">
-        <v>0.9996540452761797</v>
+        <v>1.031331724771058</v>
       </c>
       <c r="W16">
-        <v>0.9999215972025803</v>
+        <v>0.9978999542840616</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001250920401314</v>
+        <v>1.027036870232124</v>
       </c>
       <c r="D17">
-        <v>1.000142786748789</v>
+        <v>0.9791138271943766</v>
       </c>
       <c r="E17">
-        <v>0.9994329870525497</v>
+        <v>1.093002971614116</v>
       </c>
       <c r="F17">
-        <v>1.001250920401314</v>
+        <v>1.093002971614116</v>
       </c>
       <c r="G17">
-        <v>0.9998587890594167</v>
+        <v>0.9478935584460795</v>
       </c>
       <c r="H17">
-        <v>0.9999902994057902</v>
+        <v>1.029046013161774</v>
       </c>
       <c r="I17">
-        <v>1.001250920401314</v>
+        <v>0.9687758830745543</v>
       </c>
       <c r="J17">
-        <v>1.000142786748789</v>
+        <v>0.9325039064806194</v>
       </c>
       <c r="K17">
-        <v>0.9995401336008879</v>
+        <v>1.093002971614116</v>
       </c>
       <c r="L17">
-        <v>1.00030345129486</v>
+        <v>0.9325039064806194</v>
       </c>
       <c r="M17">
-        <v>0.9998720467588209</v>
+        <v>0.9983778323287862</v>
       </c>
       <c r="N17">
-        <v>1.001250920401314</v>
+        <v>1.093002971614116</v>
       </c>
       <c r="O17">
-        <v>0.9994329870525497</v>
+        <v>0.9983778323287862</v>
       </c>
       <c r="P17">
-        <v>0.9997878869006693</v>
+        <v>0.9654408694047028</v>
       </c>
       <c r="Q17">
-        <v>0.9996458880559832</v>
+        <v>0.9887458297615814</v>
       </c>
       <c r="R17">
-        <v>1.000275564734218</v>
+        <v>1.007961570141174</v>
       </c>
       <c r="S17">
-        <v>0.9998115209535851</v>
+        <v>0.9699985220012607</v>
       </c>
       <c r="T17">
-        <v>1.000275564734218</v>
+        <v>1.007961570141174</v>
       </c>
       <c r="U17">
-        <v>1.000171370815517</v>
+        <v>1.000749634404475</v>
       </c>
       <c r="V17">
-        <v>1.000387280732677</v>
+        <v>1.019200301846403</v>
       </c>
       <c r="W17">
-        <v>1.000048926790303</v>
+        <v>0.9969688578165539</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000001496582623</v>
+        <v>1.026791978770716</v>
       </c>
       <c r="D18">
-        <v>0.9974689500119778</v>
+        <v>0.9859532928243098</v>
       </c>
       <c r="E18">
-        <v>1.001378062745479</v>
+        <v>1.005849328279889</v>
       </c>
       <c r="F18">
-        <v>1.000001496582623</v>
+        <v>1.005849328279889</v>
       </c>
       <c r="G18">
-        <v>0.9996267170278308</v>
+        <v>0.962248622512762</v>
       </c>
       <c r="H18">
-        <v>1.000934172303654</v>
+        <v>1.003074889085875</v>
       </c>
       <c r="I18">
-        <v>1.000001496582623</v>
+        <v>1.000129119646797</v>
       </c>
       <c r="J18">
-        <v>0.9974689500119778</v>
+        <v>0.939212614959074</v>
       </c>
       <c r="K18">
-        <v>1.000095673187694</v>
+        <v>1.005849328279889</v>
       </c>
       <c r="L18">
-        <v>1.000185996377965</v>
+        <v>0.939212614959074</v>
       </c>
       <c r="M18">
-        <v>0.9985943766747325</v>
+        <v>1.038557474088583</v>
       </c>
       <c r="N18">
-        <v>1.000001496582623</v>
+        <v>1.005849328279889</v>
       </c>
       <c r="O18">
-        <v>1.001378062745479</v>
+        <v>1.038557474088583</v>
       </c>
       <c r="P18">
-        <v>0.9994235063787285</v>
+        <v>0.9888850445238285</v>
       </c>
       <c r="Q18">
-        <v>1.000502389886655</v>
+        <v>1.012255383456446</v>
       </c>
       <c r="R18">
-        <v>0.9996161697800267</v>
+        <v>0.9945398057758487</v>
       </c>
       <c r="S18">
-        <v>0.9994912432617626</v>
+        <v>0.9879077939573223</v>
       </c>
       <c r="T18">
-        <v>0.9996161697800267</v>
+        <v>0.9945398057758487</v>
       </c>
       <c r="U18">
-        <v>0.9996188065919778</v>
+        <v>0.992393177537964</v>
       </c>
       <c r="V18">
-        <v>0.9996953445901069</v>
+        <v>0.995084407686349</v>
       </c>
       <c r="W18">
-        <v>0.9997856806139944</v>
+        <v>0.9952271650210007</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.033433787309241</v>
+      </c>
+      <c r="D19">
+        <v>0.9823313745140326</v>
+      </c>
+      <c r="E19">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="F19">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="G19">
+        <v>0.9549522763663848</v>
+      </c>
+      <c r="H19">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="I19">
+        <v>1.002477832567554</v>
+      </c>
+      <c r="J19">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="K19">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="L19">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="M19">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="N19">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="O19">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="P19">
+        <v>0.9898183126452558</v>
+      </c>
+      <c r="Q19">
+        <v>1.017044955008082</v>
+      </c>
+      <c r="R19">
+        <v>0.9932676896932296</v>
+      </c>
+      <c r="S19">
+        <v>0.9873226666015147</v>
+      </c>
+      <c r="T19">
+        <v>0.9932676896932296</v>
+      </c>
+      <c r="U19">
+        <v>0.9905336108984304</v>
+      </c>
+      <c r="V19">
+        <v>0.9924601774765798</v>
+      </c>
+      <c r="W19">
+        <v>0.9942246175635161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000250745121097</v>
+      </c>
+      <c r="D20">
+        <v>0.9999757943779153</v>
+      </c>
+      <c r="E20">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="F20">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="G20">
+        <v>0.9997699614273681</v>
+      </c>
+      <c r="H20">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="I20">
+        <v>1.000366017212265</v>
+      </c>
+      <c r="J20">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="K20">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="L20">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="M20">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="N20">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="O20">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="P20">
+        <v>1.000089335865329</v>
+      </c>
+      <c r="Q20">
+        <v>1.00039129059938</v>
+      </c>
+      <c r="R20">
+        <v>0.9997455172889403</v>
+      </c>
+      <c r="S20">
+        <v>1.000051488702858</v>
+      </c>
+      <c r="T20">
+        <v>0.9997455172889403</v>
+      </c>
+      <c r="U20">
+        <v>0.999803086561184</v>
+      </c>
+      <c r="V20">
+        <v>0.9996540452761797</v>
+      </c>
+      <c r="W20">
+        <v>0.9999215972025803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999902994057901</v>
+      </c>
+      <c r="D21">
+        <v>0.9998587890594165</v>
+      </c>
+      <c r="E21">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="F21">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="G21">
+        <v>0.9998720467588212</v>
+      </c>
+      <c r="H21">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="I21">
+        <v>0.9995401336008881</v>
+      </c>
+      <c r="J21">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="K21">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="L21">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="M21">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="N21">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="O21">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="P21">
+        <v>0.999787886900669</v>
+      </c>
+      <c r="Q21">
+        <v>0.9996458880559831</v>
+      </c>
+      <c r="R21">
+        <v>1.000275564734217</v>
+      </c>
+      <c r="S21">
+        <v>0.9998115209535848</v>
+      </c>
+      <c r="T21">
+        <v>1.000275564734217</v>
+      </c>
+      <c r="U21">
+        <v>1.000171370815517</v>
+      </c>
+      <c r="V21">
+        <v>1.000387280732677</v>
+      </c>
+      <c r="W21">
+        <v>1.000048926790303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000934172303654</v>
+      </c>
+      <c r="D22">
+        <v>0.9996267170278308</v>
+      </c>
+      <c r="E22">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="F22">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="G22">
+        <v>0.9985943766747325</v>
+      </c>
+      <c r="H22">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="I22">
+        <v>1.000095673187693</v>
+      </c>
+      <c r="J22">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="K22">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="L22">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="M22">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="N22">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="O22">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="P22">
+        <v>0.9994235063787287</v>
+      </c>
+      <c r="Q22">
+        <v>1.000502389886655</v>
+      </c>
+      <c r="R22">
+        <v>0.9996161697800271</v>
+      </c>
+      <c r="S22">
+        <v>0.9994912432617626</v>
+      </c>
+      <c r="T22">
+        <v>0.9996161697800271</v>
+      </c>
+      <c r="U22">
+        <v>0.999618806591978</v>
+      </c>
+      <c r="V22">
+        <v>0.9996953445901072</v>
+      </c>
+      <c r="W22">
+        <v>0.9997856806139946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.002625641925689</v>
+      </c>
+      <c r="D23">
+        <v>0.9992562727515089</v>
+      </c>
+      <c r="E23">
         <v>0.9977981512755734</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9977981512755734</v>
+      </c>
+      <c r="G23">
+        <v>0.9962379108370836</v>
+      </c>
+      <c r="H23">
+        <v>1.000051312972357</v>
+      </c>
+      <c r="I23">
+        <v>1.001091486779721</v>
+      </c>
+      <c r="J23">
         <v>0.9924602117628354</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>0.9977981512755734</v>
+      </c>
+      <c r="L23">
+        <v>0.9924602117628354</v>
+      </c>
+      <c r="M23">
         <v>1.004821355080959</v>
       </c>
-      <c r="F19">
+      <c r="N23">
         <v>0.9977981512755734</v>
       </c>
-      <c r="G19">
-        <v>0.9992562727515089</v>
-      </c>
-      <c r="H19">
-        <v>1.002625641925689</v>
-      </c>
-      <c r="I19">
-        <v>0.9977981512755734</v>
-      </c>
-      <c r="J19">
-        <v>0.9924602117628354</v>
-      </c>
-      <c r="K19">
-        <v>1.001091486779721</v>
-      </c>
-      <c r="L19">
-        <v>1.000051312972357</v>
-      </c>
-      <c r="M19">
-        <v>0.9962379108370836</v>
-      </c>
-      <c r="N19">
-        <v>0.9977981512755734</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.004821355080959</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9986407834218972</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.002038813916234</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9983599060397893</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9988459465317678</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9983599060397893</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9985839977177192</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9984268284292901</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9992927929232158</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001265923316536</v>
+        <v>1.032481552067721</v>
       </c>
       <c r="D3">
-        <v>0.9987611362530835</v>
+        <v>0.9825416063040371</v>
       </c>
       <c r="E3">
-        <v>1.007479220619864</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="F3">
-        <v>1.007479220619864</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="G3">
-        <v>0.9970838296682837</v>
+        <v>0.9536566257420754</v>
       </c>
       <c r="H3">
-        <v>1.002263644948268</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="I3">
-        <v>0.9974068278004922</v>
+        <v>0.9985658590273825</v>
       </c>
       <c r="J3">
-        <v>0.9967110786392752</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K3">
-        <v>1.007479220619864</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="L3">
-        <v>0.9967110786392752</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="M3">
-        <v>0.9984801509501645</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="N3">
-        <v>1.007479220619864</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="O3">
-        <v>0.9984801509501645</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="P3">
-        <v>0.9975956147947198</v>
+        <v>0.9856019853710369</v>
       </c>
       <c r="Q3">
-        <v>0.9986206436016241</v>
+        <v>1.013658516844381</v>
       </c>
       <c r="R3">
-        <v>1.000890150069768</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="S3">
-        <v>0.9979841219475077</v>
+        <v>0.9845818590153703</v>
       </c>
       <c r="T3">
-        <v>1.000890150069768</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="U3">
-        <v>1.000357896615597</v>
+        <v>0.9912933736761536</v>
       </c>
       <c r="V3">
-        <v>1.00178216141645</v>
+        <v>0.9953202824726235</v>
       </c>
       <c r="W3">
-        <v>0.9999314765244957</v>
+        <v>0.9943462768659947</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002406834468507</v>
+        <v>1.030011313979686</v>
       </c>
       <c r="D4">
-        <v>0.9976374295971374</v>
+        <v>0.9840854604845352</v>
       </c>
       <c r="E4">
-        <v>1.014508918581146</v>
+        <v>1.00895744053299</v>
       </c>
       <c r="F4">
-        <v>1.014508918581146</v>
+        <v>1.00895744053299</v>
       </c>
       <c r="G4">
-        <v>0.9943899021710558</v>
+        <v>0.9573154776248585</v>
       </c>
       <c r="H4">
-        <v>1.00441020513607</v>
+        <v>1.004166578889304</v>
       </c>
       <c r="I4">
-        <v>0.9949699586434895</v>
+        <v>0.9992852421766577</v>
       </c>
       <c r="J4">
-        <v>0.9936588932057756</v>
+        <v>0.9317018894809918</v>
       </c>
       <c r="K4">
-        <v>1.014508918581146</v>
+        <v>1.00895744053299</v>
       </c>
       <c r="L4">
-        <v>0.9936588932057756</v>
+        <v>0.9317018894809918</v>
       </c>
       <c r="M4">
-        <v>0.9969679277897998</v>
+        <v>1.042071996389305</v>
       </c>
       <c r="N4">
-        <v>1.014508918581146</v>
+        <v>1.00895744053299</v>
       </c>
       <c r="O4">
-        <v>0.9969679277897998</v>
+        <v>1.042071996389305</v>
       </c>
       <c r="P4">
-        <v>0.9953134104977877</v>
+        <v>0.9868869429351486</v>
       </c>
       <c r="Q4">
-        <v>0.9973026786934687</v>
+        <v>1.01307872843692</v>
       </c>
       <c r="R4">
-        <v>1.001711913192241</v>
+        <v>0.9942437754677625</v>
       </c>
       <c r="S4">
-        <v>0.9960880835309043</v>
+        <v>0.9859531154516108</v>
       </c>
       <c r="T4">
-        <v>1.001711913192241</v>
+        <v>0.9942437754677624</v>
       </c>
       <c r="U4">
-        <v>1.000693292293465</v>
+        <v>0.9917041967219556</v>
       </c>
       <c r="V4">
-        <v>1.003456417551001</v>
+        <v>0.9951548454841627</v>
       </c>
       <c r="W4">
-        <v>0.9998687586991226</v>
+        <v>0.994699424944791</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00487652594314</v>
+        <v>1.036944487061995</v>
       </c>
       <c r="D5">
-        <v>0.9953685156798773</v>
+        <v>0.9797492738274928</v>
       </c>
       <c r="E5">
-        <v>1.027003239377252</v>
+        <v>1.015434509892184</v>
       </c>
       <c r="F5">
-        <v>1.027003239377252</v>
+        <v>1.015434509892184</v>
       </c>
       <c r="G5">
-        <v>0.9890577669250533</v>
+        <v>0.9471712691374662</v>
       </c>
       <c r="H5">
-        <v>1.008184537478926</v>
+        <v>1.006018057574124</v>
       </c>
       <c r="I5">
-        <v>0.9906582106878519</v>
+        <v>0.9974155038814002</v>
       </c>
       <c r="J5">
-        <v>0.9874610085842321</v>
+        <v>0.9171158701617231</v>
       </c>
       <c r="K5">
-        <v>1.027003239377252</v>
+        <v>1.015434509892184</v>
       </c>
       <c r="L5">
-        <v>0.9874610085842321</v>
+        <v>0.9171158701617231</v>
       </c>
       <c r="M5">
-        <v>0.9949831284655811</v>
+        <v>1.049889349892181</v>
       </c>
       <c r="N5">
-        <v>1.027003239377252</v>
+        <v>1.015434509892184</v>
       </c>
       <c r="O5">
-        <v>0.9949831284655811</v>
+        <v>1.049889349892181</v>
       </c>
       <c r="P5">
-        <v>0.9912220685249067</v>
+        <v>0.9835026100269522</v>
       </c>
       <c r="Q5">
-        <v>0.9951758220727291</v>
+        <v>1.014819311859837</v>
       </c>
       <c r="R5">
-        <v>1.003149125475688</v>
+        <v>0.994146576648696</v>
       </c>
       <c r="S5">
-        <v>0.9926042175765636</v>
+        <v>0.9822514979604656</v>
       </c>
       <c r="T5">
-        <v>1.003149125475688</v>
+        <v>0.994146576648696</v>
       </c>
       <c r="U5">
-        <v>1.001203973026735</v>
+        <v>0.9905472509433951</v>
       </c>
       <c r="V5">
-        <v>1.006363826296839</v>
+        <v>0.9955247027331529</v>
       </c>
       <c r="W5">
-        <v>0.999699116642739</v>
+        <v>0.9937172901785709</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007264583092434</v>
+        <v>1.040840001590908</v>
       </c>
       <c r="D6">
-        <v>0.9931742669400832</v>
+        <v>0.9773081135227277</v>
       </c>
       <c r="E6">
-        <v>1.039218443932764</v>
+        <v>1.018360730568183</v>
       </c>
       <c r="F6">
-        <v>1.039218443932764</v>
+        <v>1.018360730568183</v>
       </c>
       <c r="G6">
-        <v>0.9838591919332281</v>
+        <v>0.9416667451704548</v>
       </c>
       <c r="H6">
-        <v>1.011883745235539</v>
+        <v>1.006767256363637</v>
       </c>
       <c r="I6">
-        <v>0.9864565315961366</v>
+        <v>0.996598094659091</v>
       </c>
       <c r="J6">
-        <v>0.9813808582936223</v>
+        <v>0.9092554610795454</v>
       </c>
       <c r="K6">
-        <v>1.039218443932764</v>
+        <v>1.018360730568183</v>
       </c>
       <c r="L6">
-        <v>0.9813808582936223</v>
+        <v>0.9092554610795454</v>
       </c>
       <c r="M6">
-        <v>0.9930056534270264</v>
+        <v>1.054640192727273</v>
       </c>
       <c r="N6">
-        <v>1.039218443932764</v>
+        <v>1.018360730568183</v>
       </c>
       <c r="O6">
-        <v>0.9930056534270264</v>
+        <v>1.054640192727273</v>
       </c>
       <c r="P6">
-        <v>0.9871932558603244</v>
+        <v>0.9819478269034094</v>
       </c>
       <c r="Q6">
-        <v>0.9930899601835548</v>
+        <v>1.015974153125001</v>
       </c>
       <c r="R6">
-        <v>1.004534985217804</v>
+        <v>0.9940854614583339</v>
       </c>
       <c r="S6">
-        <v>0.9891869262202441</v>
+        <v>0.9804012557765155</v>
       </c>
       <c r="T6">
-        <v>1.004534985217804</v>
+        <v>0.9940854614583339</v>
       </c>
       <c r="U6">
-        <v>1.001694805648374</v>
+        <v>0.9898911244744324</v>
       </c>
       <c r="V6">
-        <v>1.009199533305252</v>
+        <v>0.9955850456931824</v>
       </c>
       <c r="W6">
-        <v>0.9995304093063541</v>
+        <v>0.9931795744602275</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000158867812154</v>
+        <v>1.014050479015788</v>
       </c>
       <c r="D7">
-        <v>0.9999168748972007</v>
+        <v>0.9784742610711296</v>
       </c>
       <c r="E7">
-        <v>0.9998497590001297</v>
+        <v>1.187926760196963</v>
       </c>
       <c r="F7">
-        <v>0.9998497590001297</v>
+        <v>1.187926760196963</v>
       </c>
       <c r="G7">
-        <v>0.9998248654012889</v>
+        <v>0.9503574238963773</v>
       </c>
       <c r="H7">
-        <v>0.9999446055374834</v>
+        <v>1.056785634914537</v>
       </c>
       <c r="I7">
-        <v>1.00006177632645</v>
+        <v>0.9335502215608861</v>
       </c>
       <c r="J7">
-        <v>0.9997197167459836</v>
+        <v>0.9546736325283988</v>
       </c>
       <c r="K7">
-        <v>0.9998497590001297</v>
+        <v>1.187926760196963</v>
       </c>
       <c r="L7">
-        <v>0.9997197167459836</v>
+        <v>0.9546736325283988</v>
       </c>
       <c r="M7">
-        <v>1.000320980767071</v>
+        <v>0.9341552575542217</v>
       </c>
       <c r="N7">
-        <v>0.9998497590001297</v>
+        <v>1.187926760196963</v>
       </c>
       <c r="O7">
-        <v>1.000320980767071</v>
+        <v>0.9341552575542217</v>
       </c>
       <c r="P7">
-        <v>1.000020348756527</v>
+        <v>0.9444144450413102</v>
       </c>
       <c r="Q7">
-        <v>1.000118927832136</v>
+        <v>0.9563147593126756</v>
       </c>
       <c r="R7">
-        <v>0.9999634855043947</v>
+        <v>1.025585216759861</v>
       </c>
       <c r="S7">
-        <v>0.9999858574700852</v>
+        <v>0.9557677170512501</v>
       </c>
       <c r="T7">
-        <v>0.9999634855043947</v>
+        <v>1.025585216759861</v>
       </c>
       <c r="U7">
-        <v>0.9999518328525963</v>
+        <v>1.013807477837678</v>
       </c>
       <c r="V7">
-        <v>0.999931418082103</v>
+        <v>1.048631334309535</v>
       </c>
       <c r="W7">
-        <v>0.9999746808109704</v>
+        <v>1.001246708842288</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000243422951854</v>
+        <v>1.013615424979588</v>
       </c>
       <c r="D8">
-        <v>0.9998710405359807</v>
+        <v>0.9787787558854281</v>
       </c>
       <c r="E8">
-        <v>0.9994621346108097</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="F8">
-        <v>0.9994621346108097</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="G8">
-        <v>0.9998147815237165</v>
+        <v>0.9516066533321355</v>
       </c>
       <c r="H8">
-        <v>0.999789967839379</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="I8">
-        <v>1.000196100839019</v>
+        <v>0.934497101450411</v>
       </c>
       <c r="J8">
-        <v>0.9997110926159413</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="K8">
-        <v>0.9994621346108097</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="L8">
-        <v>0.9997110926159413</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="M8">
-        <v>1.000646783850277</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="N8">
-        <v>0.9994621346108097</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="O8">
-        <v>1.000646783850277</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="P8">
-        <v>1.000178938233109</v>
+        <v>0.945704873142168</v>
       </c>
       <c r="Q8">
-        <v>1.000258912193129</v>
+        <v>0.956833928935801</v>
       </c>
       <c r="R8">
-        <v>0.9999400036923426</v>
+        <v>1.025483631503701</v>
       </c>
       <c r="S8">
-        <v>1.0000763056674</v>
+        <v>0.9567295007232547</v>
       </c>
       <c r="T8">
-        <v>0.9999400036923426</v>
+        <v>1.025483631503701</v>
       </c>
       <c r="U8">
-        <v>0.9999227629032521</v>
+        <v>1.013807412599133</v>
       </c>
       <c r="V8">
-        <v>0.9998306372447636</v>
+        <v>1.04805415972466</v>
       </c>
       <c r="W8">
-        <v>0.9999669155958721</v>
+        <v>1.00133387542298</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00003395747452</v>
+        <v>1.013860989725933</v>
       </c>
       <c r="D9">
-        <v>0.999974473884071</v>
+        <v>0.9787382110552586</v>
       </c>
       <c r="E9">
-        <v>0.9990080388634269</v>
+        <v>1.18312579935561</v>
       </c>
       <c r="F9">
-        <v>0.9990080388634269</v>
+        <v>1.18312579935561</v>
       </c>
       <c r="G9">
-        <v>1.000226979460058</v>
+        <v>0.9516620763725261</v>
       </c>
       <c r="H9">
-        <v>0.9995945964503098</v>
+        <v>1.055079876466352</v>
       </c>
       <c r="I9">
-        <v>1.000326596950712</v>
+        <v>0.9351832870756295</v>
       </c>
       <c r="J9">
-        <v>1.000396982951842</v>
+        <v>0.9564019431908124</v>
       </c>
       <c r="K9">
-        <v>0.9990080388634269</v>
+        <v>1.18312579935561</v>
       </c>
       <c r="L9">
-        <v>1.000396982951842</v>
+        <v>0.9564019431908124</v>
       </c>
       <c r="M9">
-        <v>1.00055188611362</v>
+        <v>0.9361880678950303</v>
       </c>
       <c r="N9">
-        <v>0.9990080388634269</v>
+        <v>1.18312579935561</v>
       </c>
       <c r="O9">
-        <v>1.00055188611362</v>
+        <v>0.9361880678950303</v>
       </c>
       <c r="P9">
-        <v>1.000474434532731</v>
+        <v>0.9462950055429213</v>
       </c>
       <c r="Q9">
-        <v>1.000263179998846</v>
+        <v>0.9574631394751445</v>
       </c>
       <c r="R9">
-        <v>0.9999856359762962</v>
+        <v>1.025238603480484</v>
       </c>
       <c r="S9">
-        <v>1.000307780983178</v>
+        <v>0.9571094073803671</v>
       </c>
       <c r="T9">
-        <v>0.9999856359762962</v>
+        <v>1.025238603480484</v>
       </c>
       <c r="U9">
-        <v>0.9999828454532399</v>
+        <v>1.013613505374178</v>
       </c>
       <c r="V9">
-        <v>0.9997878841352772</v>
+        <v>1.047515964170464</v>
       </c>
       <c r="W9">
-        <v>1.00001418901857</v>
+        <v>1.001280031392144</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000370388488294</v>
+        <v>1.009291655605832</v>
       </c>
       <c r="D10">
-        <v>0.9997976417509227</v>
+        <v>0.9813247706777321</v>
       </c>
       <c r="E10">
-        <v>0.9980177367932583</v>
+        <v>1.171684913154148</v>
       </c>
       <c r="F10">
-        <v>0.9980177367932583</v>
+        <v>1.171684913154148</v>
       </c>
       <c r="G10">
-        <v>1.000034523422218</v>
+        <v>0.9606085230959361</v>
       </c>
       <c r="H10">
-        <v>0.9992075800409874</v>
+        <v>1.050637025862446</v>
       </c>
       <c r="I10">
-        <v>1.000679449752607</v>
+        <v>0.9386764493408056</v>
       </c>
       <c r="J10">
-        <v>1.000099388044863</v>
+        <v>0.9704364911379293</v>
       </c>
       <c r="K10">
-        <v>0.9980177367932583</v>
+        <v>1.171684913154148</v>
       </c>
       <c r="L10">
-        <v>1.000099388044863</v>
+        <v>0.9704364911379293</v>
       </c>
       <c r="M10">
-        <v>1.001568509281302</v>
+        <v>0.9347448824294041</v>
       </c>
       <c r="N10">
-        <v>0.9980177367932583</v>
+        <v>1.171684913154148</v>
       </c>
       <c r="O10">
-        <v>1.001568509281302</v>
+        <v>0.9347448824294041</v>
       </c>
       <c r="P10">
-        <v>1.000833948663082</v>
+        <v>0.9525906867836667</v>
       </c>
       <c r="Q10">
-        <v>1.000683075516112</v>
+        <v>0.9580348265535681</v>
       </c>
       <c r="R10">
-        <v>0.9998952113731409</v>
+        <v>1.025622095573827</v>
       </c>
       <c r="S10">
-        <v>1.000488513025696</v>
+        <v>0.9621687147483552</v>
       </c>
       <c r="T10">
-        <v>0.9998952113731409</v>
+        <v>1.025622095573827</v>
       </c>
       <c r="U10">
-        <v>0.9998708189675863</v>
+        <v>1.014547764349803</v>
       </c>
       <c r="V10">
-        <v>0.9995002025327206</v>
+        <v>1.045975194110672</v>
       </c>
       <c r="W10">
-        <v>0.9999719021968063</v>
+        <v>1.002175588913029</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999173736351101</v>
+        <v>1.001418925130225</v>
       </c>
       <c r="D11">
-        <v>0.9999979920158375</v>
+        <v>0.9985922629471237</v>
       </c>
       <c r="E11">
-        <v>0.9962192039899348</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="F11">
-        <v>0.9962192039899348</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="G11">
-        <v>1.001175098971444</v>
+        <v>0.9966404637511538</v>
       </c>
       <c r="H11">
-        <v>0.9984289376874705</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="I11">
-        <v>1.001219138402376</v>
+        <v>0.9969403889855959</v>
       </c>
       <c r="J11">
-        <v>1.002057596536896</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K11">
-        <v>0.9962192039899348</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="L11">
-        <v>1.002057596536896</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="M11">
-        <v>1.001780038078881</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="N11">
-        <v>0.9962192039899348</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="O11">
-        <v>1.001780038078881</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="P11">
-        <v>1.001918817307889</v>
+        <v>0.9971481677408398</v>
       </c>
       <c r="Q11">
-        <v>1.000889015047359</v>
+        <v>0.9983383699190804</v>
       </c>
       <c r="R11">
-        <v>1.000018946201904</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="S11">
-        <v>1.001278542210538</v>
+        <v>0.9976295328096011</v>
       </c>
       <c r="T11">
-        <v>1.000018946201904</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="U11">
-        <v>1.000013707655387</v>
+        <v>1.000428229347165</v>
       </c>
       <c r="V11">
-        <v>0.999254806922297</v>
+        <v>1.002107447269704</v>
       </c>
       <c r="W11">
-        <v>1.000099422414744</v>
+        <v>0.9999251133313306</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9972790170282894</v>
+        <v>1.000450169023744</v>
       </c>
       <c r="D12">
-        <v>1.004995445085638</v>
+        <v>0.9994324356795342</v>
       </c>
       <c r="E12">
-        <v>1.012353087906899</v>
+        <v>1.004164443602485</v>
       </c>
       <c r="F12">
-        <v>1.012353087906899</v>
+        <v>1.004164443602485</v>
       </c>
       <c r="G12">
-        <v>0.9958031236306705</v>
+        <v>0.9987368288875293</v>
       </c>
       <c r="H12">
-        <v>1.009648920589846</v>
+        <v>1.001239007186606</v>
       </c>
       <c r="I12">
-        <v>0.99681547564494</v>
+        <v>0.9985303163876473</v>
       </c>
       <c r="J12">
-        <v>0.9842976226294291</v>
+        <v>0.9987806549414697</v>
       </c>
       <c r="K12">
-        <v>1.012353087906899</v>
+        <v>1.004164443602485</v>
       </c>
       <c r="L12">
-        <v>0.9842976226294291</v>
+        <v>0.9987806549414697</v>
       </c>
       <c r="M12">
-        <v>0.9877932451931216</v>
+        <v>0.9987631723642146</v>
       </c>
       <c r="N12">
-        <v>1.012353087906899</v>
+        <v>1.004164443602485</v>
       </c>
       <c r="O12">
-        <v>0.9877932451931216</v>
+        <v>0.9987631723642146</v>
       </c>
       <c r="P12">
-        <v>0.9860454339112754</v>
+        <v>0.9987719136528421</v>
       </c>
       <c r="Q12">
-        <v>0.99639434513938</v>
+        <v>0.9990978040218744</v>
       </c>
       <c r="R12">
-        <v>0.9948146519098167</v>
+        <v>1.000569423636056</v>
       </c>
       <c r="S12">
-        <v>0.9923621043027296</v>
+        <v>0.9989920876617395</v>
       </c>
       <c r="T12">
-        <v>0.9948146519098165</v>
+        <v>1.000569423636056</v>
       </c>
       <c r="U12">
-        <v>0.9973598502037719</v>
+        <v>1.000285176646926</v>
       </c>
       <c r="V12">
-        <v>1.000358497744397</v>
+        <v>1.001061030038038</v>
       </c>
       <c r="W12">
-        <v>0.9986232422136043</v>
+        <v>1.000012128509154</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.006771035746939</v>
+        <v>0.9995583387341849</v>
       </c>
       <c r="D13">
-        <v>0.9911394897583976</v>
+        <v>0.9991836323471325</v>
       </c>
       <c r="E13">
-        <v>1.001769513228698</v>
+        <v>1.01118269948675</v>
       </c>
       <c r="F13">
-        <v>1.001769513228698</v>
+        <v>1.01118269948675</v>
       </c>
       <c r="G13">
-        <v>0.9971331293955223</v>
+        <v>0.9990513973586602</v>
       </c>
       <c r="H13">
-        <v>0.9937204182804564</v>
+        <v>1.003074241479184</v>
       </c>
       <c r="I13">
-        <v>0.9984600934298319</v>
+        <v>0.9958634595585433</v>
       </c>
       <c r="J13">
-        <v>1.008235246009658</v>
+        <v>1.001066628777094</v>
       </c>
       <c r="K13">
-        <v>1.001769513228698</v>
+        <v>1.01118269948675</v>
       </c>
       <c r="L13">
-        <v>1.008235246009658</v>
+        <v>1.001066628777094</v>
       </c>
       <c r="M13">
-        <v>1.012417350723668</v>
+        <v>0.9941930585836156</v>
       </c>
       <c r="N13">
-        <v>1.001769513228698</v>
+        <v>1.01118269948675</v>
       </c>
       <c r="O13">
-        <v>1.012417350723668</v>
+        <v>0.9941930585836156</v>
       </c>
       <c r="P13">
-        <v>1.010326298366663</v>
+        <v>0.9976298436803547</v>
       </c>
       <c r="Q13">
-        <v>1.001778420241033</v>
+        <v>0.9966883454653741</v>
       </c>
       <c r="R13">
-        <v>1.007474036654008</v>
+        <v>1.002147462282486</v>
       </c>
       <c r="S13">
-        <v>1.003930695497241</v>
+        <v>0.9981477732359473</v>
       </c>
       <c r="T13">
-        <v>1.007474036654008</v>
+        <v>1.002147462282486</v>
       </c>
       <c r="U13">
-        <v>1.003390399930105</v>
+        <v>1.001406504798648</v>
       </c>
       <c r="V13">
-        <v>1.003066222589824</v>
+        <v>1.003361743736268</v>
       </c>
       <c r="W13">
-        <v>1.001205784571646</v>
+        <v>1.000396682040646</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6357386469968241</v>
+        <v>1.003630025146462</v>
       </c>
       <c r="D14">
-        <v>1.200402461244877</v>
+        <v>0.9965497399139639</v>
       </c>
       <c r="E14">
-        <v>0.4456680743781916</v>
+        <v>1.020264397329754</v>
       </c>
       <c r="F14">
-        <v>0.4456680743781916</v>
+        <v>1.020264397329754</v>
       </c>
       <c r="G14">
-        <v>1.62568492752117</v>
+        <v>0.9918147268729455</v>
       </c>
       <c r="H14">
-        <v>0.7807582616836947</v>
+        <v>1.00615416796085</v>
       </c>
       <c r="I14">
-        <v>1.159279919901514</v>
+        <v>0.9929915929943305</v>
       </c>
       <c r="J14">
-        <v>1.987291489559742</v>
+        <v>0.9906059929638367</v>
       </c>
       <c r="K14">
-        <v>0.4456680743781916</v>
+        <v>1.020264397329754</v>
       </c>
       <c r="L14">
-        <v>1.987291489559742</v>
+        <v>0.9906059929638367</v>
       </c>
       <c r="M14">
-        <v>0.7094658101932654</v>
+        <v>0.9961852717324553</v>
       </c>
       <c r="N14">
-        <v>0.4456680743781916</v>
+        <v>1.020264397329754</v>
       </c>
       <c r="O14">
-        <v>0.7094658101932654</v>
+        <v>0.9961852717324553</v>
       </c>
       <c r="P14">
-        <v>1.348378649876504</v>
+        <v>0.993395632348146</v>
       </c>
       <c r="Q14">
-        <v>0.954934135719071</v>
+        <v>0.9963675058232095</v>
       </c>
       <c r="R14">
-        <v>1.047475124710399</v>
+        <v>1.002351887342016</v>
       </c>
       <c r="S14">
-        <v>1.299053253665961</v>
+        <v>0.994447001536752</v>
       </c>
       <c r="T14">
-        <v>1.0474751247104</v>
+        <v>1.002351887342015</v>
       </c>
       <c r="U14">
-        <v>1.085706958844019</v>
+        <v>1.000901350485003</v>
       </c>
       <c r="V14">
-        <v>0.9576991819508536</v>
+        <v>1.004773959853953</v>
       </c>
       <c r="W14">
-        <v>1.06803619893491</v>
+        <v>0.9997744893643248</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9111403904141306</v>
+        <v>1.001265923316536</v>
       </c>
       <c r="D15">
-        <v>1.059186727830439</v>
+        <v>0.9987611362530835</v>
       </c>
       <c r="E15">
-        <v>0.8001049906340567</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="F15">
-        <v>0.8001049906340567</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="G15">
-        <v>1.155875155806751</v>
+        <v>0.9970838296682837</v>
       </c>
       <c r="H15">
-        <v>0.9342608909187008</v>
+        <v>1.002263644948268</v>
       </c>
       <c r="I15">
-        <v>1.064226706261459</v>
+        <v>0.9974068278004922</v>
       </c>
       <c r="J15">
-        <v>1.220094472832538</v>
+        <v>0.9967110786392752</v>
       </c>
       <c r="K15">
-        <v>0.8001049906340567</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="L15">
-        <v>1.220094472832538</v>
+        <v>0.9967110786392752</v>
       </c>
       <c r="M15">
-        <v>0.956837608256232</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="N15">
-        <v>0.8001049906340567</v>
+        <v>1.007479220619864</v>
       </c>
       <c r="O15">
-        <v>0.956837608256232</v>
+        <v>0.9984801509501645</v>
       </c>
       <c r="P15">
-        <v>1.088466040544385</v>
+        <v>0.9975956147947198</v>
       </c>
       <c r="Q15">
-        <v>1.008012168043335</v>
+        <v>0.9986206436016241</v>
       </c>
       <c r="R15">
-        <v>0.9923456905742757</v>
+        <v>1.000890150069768</v>
       </c>
       <c r="S15">
-        <v>1.078706269639736</v>
+        <v>0.9979841219475077</v>
       </c>
       <c r="T15">
-        <v>0.9923456905742757</v>
+        <v>1.000890150069768</v>
       </c>
       <c r="U15">
-        <v>1.009055949888316</v>
+        <v>1.000357896615597</v>
       </c>
       <c r="V15">
-        <v>0.9672657580374645</v>
+        <v>1.00178216141645</v>
       </c>
       <c r="W15">
-        <v>1.012715867869288</v>
+        <v>0.9999314765244957</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.026858734668049</v>
+        <v>1.002406834468507</v>
       </c>
       <c r="D16">
-        <v>0.9758369989772253</v>
+        <v>0.9976374295971374</v>
       </c>
       <c r="E16">
-        <v>1.136541479230731</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="F16">
-        <v>1.136541479230731</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="G16">
-        <v>0.9411523923099812</v>
+        <v>0.9943899021710558</v>
       </c>
       <c r="H16">
-        <v>1.041988759653279</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="I16">
-        <v>0.9530826030166232</v>
+        <v>0.9949699586434895</v>
       </c>
       <c r="J16">
-        <v>0.9298906180552243</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K16">
-        <v>1.136541479230731</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="L16">
-        <v>0.9298906180552243</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="M16">
-        <v>0.9778480483613802</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="N16">
-        <v>1.136541479230731</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="O16">
-        <v>0.9778480483613802</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="P16">
-        <v>0.9538693332083023</v>
+        <v>0.9953134104977877</v>
       </c>
       <c r="Q16">
-        <v>0.9768425236693028</v>
+        <v>0.9973026786934687</v>
       </c>
       <c r="R16">
-        <v>1.014760048549112</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="S16">
-        <v>0.9611918884646099</v>
+        <v>0.9960880835309043</v>
       </c>
       <c r="T16">
-        <v>1.014760048549112</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="U16">
-        <v>1.00502928615614</v>
+        <v>1.000693292293465</v>
       </c>
       <c r="V16">
-        <v>1.031331724771058</v>
+        <v>1.003456417551001</v>
       </c>
       <c r="W16">
-        <v>0.9978999542840616</v>
+        <v>0.9998687586991226</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.027036870232124</v>
+        <v>1.00487652594314</v>
       </c>
       <c r="D17">
-        <v>0.9791138271943766</v>
+        <v>0.9953685156798773</v>
       </c>
       <c r="E17">
-        <v>1.093002971614116</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="F17">
-        <v>1.093002971614116</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="G17">
-        <v>0.9478935584460795</v>
+        <v>0.9890577669250533</v>
       </c>
       <c r="H17">
-        <v>1.029046013161774</v>
+        <v>1.008184537478926</v>
       </c>
       <c r="I17">
-        <v>0.9687758830745543</v>
+        <v>0.9906582106878519</v>
       </c>
       <c r="J17">
-        <v>0.9325039064806194</v>
+        <v>0.9874610085842321</v>
       </c>
       <c r="K17">
-        <v>1.093002971614116</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="L17">
-        <v>0.9325039064806194</v>
+        <v>0.9874610085842321</v>
       </c>
       <c r="M17">
-        <v>0.9983778323287862</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="N17">
-        <v>1.093002971614116</v>
+        <v>1.027003239377252</v>
       </c>
       <c r="O17">
-        <v>0.9983778323287862</v>
+        <v>0.9949831284655811</v>
       </c>
       <c r="P17">
-        <v>0.9654408694047028</v>
+        <v>0.9912220685249067</v>
       </c>
       <c r="Q17">
-        <v>0.9887458297615814</v>
+        <v>0.9951758220727291</v>
       </c>
       <c r="R17">
-        <v>1.007961570141174</v>
+        <v>1.003149125475688</v>
       </c>
       <c r="S17">
-        <v>0.9699985220012607</v>
+        <v>0.9926042175765636</v>
       </c>
       <c r="T17">
-        <v>1.007961570141174</v>
+        <v>1.003149125475688</v>
       </c>
       <c r="U17">
-        <v>1.000749634404475</v>
+        <v>1.001203973026735</v>
       </c>
       <c r="V17">
-        <v>1.019200301846403</v>
+        <v>1.006363826296839</v>
       </c>
       <c r="W17">
-        <v>0.9969688578165539</v>
+        <v>0.999699116642739</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026791978770716</v>
+        <v>1.007264583092434</v>
       </c>
       <c r="D18">
-        <v>0.9859532928243098</v>
+        <v>0.9931742669400832</v>
       </c>
       <c r="E18">
-        <v>1.005849328279889</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="F18">
-        <v>1.005849328279889</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="G18">
-        <v>0.962248622512762</v>
+        <v>0.9838591919332281</v>
       </c>
       <c r="H18">
-        <v>1.003074889085875</v>
+        <v>1.011883745235539</v>
       </c>
       <c r="I18">
-        <v>1.000129119646797</v>
+        <v>0.9864565315961366</v>
       </c>
       <c r="J18">
-        <v>0.939212614959074</v>
+        <v>0.9813808582936223</v>
       </c>
       <c r="K18">
-        <v>1.005849328279889</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="L18">
-        <v>0.939212614959074</v>
+        <v>0.9813808582936223</v>
       </c>
       <c r="M18">
-        <v>1.038557474088583</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="N18">
-        <v>1.005849328279889</v>
+        <v>1.039218443932764</v>
       </c>
       <c r="O18">
-        <v>1.038557474088583</v>
+        <v>0.9930056534270264</v>
       </c>
       <c r="P18">
-        <v>0.9888850445238285</v>
+        <v>0.9871932558603244</v>
       </c>
       <c r="Q18">
-        <v>1.012255383456446</v>
+        <v>0.9930899601835548</v>
       </c>
       <c r="R18">
-        <v>0.9945398057758487</v>
+        <v>1.004534985217804</v>
       </c>
       <c r="S18">
-        <v>0.9879077939573223</v>
+        <v>0.9891869262202441</v>
       </c>
       <c r="T18">
-        <v>0.9945398057758487</v>
+        <v>1.004534985217804</v>
       </c>
       <c r="U18">
-        <v>0.992393177537964</v>
+        <v>1.001694805648374</v>
       </c>
       <c r="V18">
-        <v>0.995084407686349</v>
+        <v>1.009199533305252</v>
       </c>
       <c r="W18">
-        <v>0.9952271650210007</v>
+        <v>0.9995304093063541</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.033433787309241</v>
+        <v>1.000158867812154</v>
       </c>
       <c r="D19">
-        <v>0.9823313745140326</v>
+        <v>0.9999168748972007</v>
       </c>
       <c r="E19">
-        <v>1.000166443789177</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="F19">
-        <v>1.000166443789177</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="G19">
-        <v>0.9549522763663848</v>
+        <v>0.9998248654012889</v>
       </c>
       <c r="H19">
-        <v>1.000798600671228</v>
+        <v>0.9999446055374834</v>
       </c>
       <c r="I19">
-        <v>1.002477832567554</v>
+        <v>1.00006177632645</v>
       </c>
       <c r="J19">
-        <v>0.9278780897883793</v>
+        <v>0.9997197167459836</v>
       </c>
       <c r="K19">
-        <v>1.000166443789177</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="L19">
-        <v>0.9278780897883793</v>
+        <v>0.9997197167459836</v>
       </c>
       <c r="M19">
-        <v>1.051758535502132</v>
+        <v>1.000320980767071</v>
       </c>
       <c r="N19">
-        <v>1.000166443789177</v>
+        <v>0.9998497590001297</v>
       </c>
       <c r="O19">
-        <v>1.051758535502132</v>
+        <v>1.000320980767071</v>
       </c>
       <c r="P19">
-        <v>0.9898183126452558</v>
+        <v>1.000020348756527</v>
       </c>
       <c r="Q19">
-        <v>1.017044955008082</v>
+        <v>1.000118927832136</v>
       </c>
       <c r="R19">
-        <v>0.9932676896932296</v>
+        <v>0.9999634855043947</v>
       </c>
       <c r="S19">
-        <v>0.9873226666015147</v>
+        <v>0.9999858574700852</v>
       </c>
       <c r="T19">
-        <v>0.9932676896932296</v>
+        <v>0.9999634855043947</v>
       </c>
       <c r="U19">
-        <v>0.9905336108984304</v>
+        <v>0.9999518328525963</v>
       </c>
       <c r="V19">
-        <v>0.9924601774765798</v>
+        <v>0.999931418082103</v>
       </c>
       <c r="W19">
-        <v>0.9942246175635161</v>
+        <v>0.9999746808109704</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000250745121097</v>
+        <v>1.000243422951854</v>
       </c>
       <c r="D20">
-        <v>0.9999757943779153</v>
+        <v>0.9998710405359807</v>
       </c>
       <c r="E20">
-        <v>0.9990578801361627</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="F20">
-        <v>0.9990578801361627</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="G20">
-        <v>0.9997699614273681</v>
+        <v>0.9998147815237165</v>
       </c>
       <c r="H20">
-        <v>0.9997737076151755</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="I20">
-        <v>1.000366017212265</v>
+        <v>1.000196100839019</v>
       </c>
       <c r="J20">
-        <v>0.9993718849098128</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="K20">
-        <v>0.9990578801361627</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="L20">
-        <v>0.9993718849098128</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="M20">
-        <v>1.000806786820845</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="N20">
-        <v>0.9990578801361627</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="O20">
-        <v>1.000806786820845</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="P20">
-        <v>1.000089335865329</v>
+        <v>1.000178938233109</v>
       </c>
       <c r="Q20">
-        <v>1.00039129059938</v>
+        <v>1.000258912193129</v>
       </c>
       <c r="R20">
-        <v>0.9997455172889403</v>
+        <v>0.9999400036923426</v>
       </c>
       <c r="S20">
-        <v>1.000051488702858</v>
+        <v>1.0000763056674</v>
       </c>
       <c r="T20">
-        <v>0.9997455172889403</v>
+        <v>0.9999400036923426</v>
       </c>
       <c r="U20">
-        <v>0.999803086561184</v>
+        <v>0.9999227629032521</v>
       </c>
       <c r="V20">
-        <v>0.9996540452761797</v>
+        <v>0.9998306372447636</v>
       </c>
       <c r="W20">
-        <v>0.9999215972025803</v>
+        <v>0.9999669155958721</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999902994057901</v>
+        <v>1.00003395747452</v>
       </c>
       <c r="D21">
-        <v>0.9998587890594165</v>
+        <v>0.999974473884071</v>
       </c>
       <c r="E21">
-        <v>1.001250920401314</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="F21">
-        <v>1.001250920401314</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="G21">
-        <v>0.9998720467588212</v>
+        <v>1.000226979460058</v>
       </c>
       <c r="H21">
-        <v>1.00030345129486</v>
+        <v>0.9995945964503098</v>
       </c>
       <c r="I21">
-        <v>0.9995401336008881</v>
+        <v>1.000326596950712</v>
       </c>
       <c r="J21">
-        <v>1.000142786748788</v>
+        <v>1.000396982951842</v>
       </c>
       <c r="K21">
-        <v>1.001250920401314</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="L21">
-        <v>1.000142786748788</v>
+        <v>1.000396982951842</v>
       </c>
       <c r="M21">
-        <v>0.9994329870525496</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="N21">
-        <v>1.001250920401314</v>
+        <v>0.9990080388634269</v>
       </c>
       <c r="O21">
-        <v>0.9994329870525496</v>
+        <v>1.00055188611362</v>
       </c>
       <c r="P21">
-        <v>0.999787886900669</v>
+        <v>1.000474434532731</v>
       </c>
       <c r="Q21">
-        <v>0.9996458880559831</v>
+        <v>1.000263179998846</v>
       </c>
       <c r="R21">
-        <v>1.000275564734217</v>
+        <v>0.9999856359762962</v>
       </c>
       <c r="S21">
-        <v>0.9998115209535848</v>
+        <v>1.000307780983178</v>
       </c>
       <c r="T21">
-        <v>1.000275564734217</v>
+        <v>0.9999856359762962</v>
       </c>
       <c r="U21">
-        <v>1.000171370815517</v>
+        <v>0.9999828454532399</v>
       </c>
       <c r="V21">
-        <v>1.000387280732677</v>
+        <v>0.9997878841352772</v>
       </c>
       <c r="W21">
-        <v>1.000048926790303</v>
+        <v>1.00001418901857</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000934172303654</v>
+        <v>1.000370388488294</v>
       </c>
       <c r="D22">
-        <v>0.9996267170278308</v>
+        <v>0.9997976417509227</v>
       </c>
       <c r="E22">
-        <v>1.000001496582624</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="F22">
-        <v>1.000001496582624</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="G22">
-        <v>0.9985943766747325</v>
+        <v>1.000034523422218</v>
       </c>
       <c r="H22">
-        <v>1.000185996377965</v>
+        <v>0.9992075800409874</v>
       </c>
       <c r="I22">
-        <v>1.000095673187693</v>
+        <v>1.000679449752607</v>
       </c>
       <c r="J22">
-        <v>0.997468950011978</v>
+        <v>1.000099388044863</v>
       </c>
       <c r="K22">
-        <v>1.000001496582624</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="L22">
-        <v>0.997468950011978</v>
+        <v>1.000099388044863</v>
       </c>
       <c r="M22">
-        <v>1.001378062745479</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="N22">
-        <v>1.000001496582624</v>
+        <v>0.9980177367932583</v>
       </c>
       <c r="O22">
-        <v>1.001378062745479</v>
+        <v>1.001568509281302</v>
       </c>
       <c r="P22">
-        <v>0.9994235063787287</v>
+        <v>1.000833948663082</v>
       </c>
       <c r="Q22">
-        <v>1.000502389886655</v>
+        <v>1.000683075516112</v>
       </c>
       <c r="R22">
-        <v>0.9996161697800271</v>
+        <v>0.9998952113731409</v>
       </c>
       <c r="S22">
-        <v>0.9994912432617626</v>
+        <v>1.000488513025696</v>
       </c>
       <c r="T22">
-        <v>0.9996161697800271</v>
+        <v>0.9998952113731409</v>
       </c>
       <c r="U22">
-        <v>0.999618806591978</v>
+        <v>0.9998708189675863</v>
       </c>
       <c r="V22">
-        <v>0.9996953445901072</v>
+        <v>0.9995002025327206</v>
       </c>
       <c r="W22">
-        <v>0.9997856806139946</v>
+        <v>0.9999719021968063</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999173736351101</v>
+      </c>
+      <c r="D23">
+        <v>0.9999979920158375</v>
+      </c>
+      <c r="E23">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="F23">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="G23">
+        <v>1.001175098971444</v>
+      </c>
+      <c r="H23">
+        <v>0.9984289376874705</v>
+      </c>
+      <c r="I23">
+        <v>1.001219138402376</v>
+      </c>
+      <c r="J23">
+        <v>1.002057596536896</v>
+      </c>
+      <c r="K23">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="L23">
+        <v>1.002057596536896</v>
+      </c>
+      <c r="M23">
+        <v>1.001780038078881</v>
+      </c>
+      <c r="N23">
+        <v>0.9962192039899348</v>
+      </c>
+      <c r="O23">
+        <v>1.001780038078881</v>
+      </c>
+      <c r="P23">
+        <v>1.001918817307889</v>
+      </c>
+      <c r="Q23">
+        <v>1.000889015047359</v>
+      </c>
+      <c r="R23">
+        <v>1.000018946201904</v>
+      </c>
+      <c r="S23">
+        <v>1.001278542210538</v>
+      </c>
+      <c r="T23">
+        <v>1.000018946201904</v>
+      </c>
+      <c r="U23">
+        <v>1.000013707655387</v>
+      </c>
+      <c r="V23">
+        <v>0.999254806922297</v>
+      </c>
+      <c r="W23">
+        <v>1.000099422414744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9972790170282894</v>
+      </c>
+      <c r="D24">
+        <v>1.004995445085638</v>
+      </c>
+      <c r="E24">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="F24">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="G24">
+        <v>0.9958031236306705</v>
+      </c>
+      <c r="H24">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="I24">
+        <v>0.99681547564494</v>
+      </c>
+      <c r="J24">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="K24">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="L24">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="M24">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="N24">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="O24">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="P24">
+        <v>0.9860454339112754</v>
+      </c>
+      <c r="Q24">
+        <v>0.99639434513938</v>
+      </c>
+      <c r="R24">
+        <v>0.9948146519098167</v>
+      </c>
+      <c r="S24">
+        <v>0.9923621043027296</v>
+      </c>
+      <c r="T24">
+        <v>0.9948146519098165</v>
+      </c>
+      <c r="U24">
+        <v>0.9973598502037719</v>
+      </c>
+      <c r="V24">
+        <v>1.000358497744397</v>
+      </c>
+      <c r="W24">
+        <v>0.9986232422136043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.006771035746939</v>
+      </c>
+      <c r="D25">
+        <v>0.9911394897583976</v>
+      </c>
+      <c r="E25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="F25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="G25">
+        <v>0.9971331293955223</v>
+      </c>
+      <c r="H25">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="I25">
+        <v>0.9984600934298319</v>
+      </c>
+      <c r="J25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="K25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="L25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="M25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="N25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="O25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="P25">
+        <v>1.010326298366663</v>
+      </c>
+      <c r="Q25">
+        <v>1.001778420241033</v>
+      </c>
+      <c r="R25">
+        <v>1.007474036654008</v>
+      </c>
+      <c r="S25">
+        <v>1.003930695497241</v>
+      </c>
+      <c r="T25">
+        <v>1.007474036654008</v>
+      </c>
+      <c r="U25">
+        <v>1.003390399930105</v>
+      </c>
+      <c r="V25">
+        <v>1.003066222589824</v>
+      </c>
+      <c r="W25">
+        <v>1.001205784571646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6357386469968241</v>
+      </c>
+      <c r="D26">
+        <v>1.200402461244877</v>
+      </c>
+      <c r="E26">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="F26">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="G26">
+        <v>1.62568492752117</v>
+      </c>
+      <c r="H26">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="I26">
+        <v>1.159279919901514</v>
+      </c>
+      <c r="J26">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="K26">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="L26">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="M26">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="N26">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="O26">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="P26">
+        <v>1.348378649876504</v>
+      </c>
+      <c r="Q26">
+        <v>0.954934135719071</v>
+      </c>
+      <c r="R26">
+        <v>1.047475124710399</v>
+      </c>
+      <c r="S26">
+        <v>1.299053253665961</v>
+      </c>
+      <c r="T26">
+        <v>1.0474751247104</v>
+      </c>
+      <c r="U26">
+        <v>1.085706958844019</v>
+      </c>
+      <c r="V26">
+        <v>0.9576991819508536</v>
+      </c>
+      <c r="W26">
+        <v>1.06803619893491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9111403904141306</v>
+      </c>
+      <c r="D27">
+        <v>1.059186727830439</v>
+      </c>
+      <c r="E27">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="F27">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="G27">
+        <v>1.155875155806751</v>
+      </c>
+      <c r="H27">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="I27">
+        <v>1.064226706261459</v>
+      </c>
+      <c r="J27">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="K27">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="L27">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="M27">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="N27">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="O27">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="P27">
+        <v>1.088466040544385</v>
+      </c>
+      <c r="Q27">
+        <v>1.008012168043335</v>
+      </c>
+      <c r="R27">
+        <v>0.9923456905742757</v>
+      </c>
+      <c r="S27">
+        <v>1.078706269639736</v>
+      </c>
+      <c r="T27">
+        <v>0.9923456905742757</v>
+      </c>
+      <c r="U27">
+        <v>1.009055949888316</v>
+      </c>
+      <c r="V27">
+        <v>0.9672657580374645</v>
+      </c>
+      <c r="W27">
+        <v>1.012715867869288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.026858734668049</v>
+      </c>
+      <c r="D28">
+        <v>0.9758369989772253</v>
+      </c>
+      <c r="E28">
+        <v>1.136541479230731</v>
+      </c>
+      <c r="F28">
+        <v>1.136541479230731</v>
+      </c>
+      <c r="G28">
+        <v>0.9411523923099812</v>
+      </c>
+      <c r="H28">
+        <v>1.041988759653279</v>
+      </c>
+      <c r="I28">
+        <v>0.9530826030166232</v>
+      </c>
+      <c r="J28">
+        <v>0.9298906180552243</v>
+      </c>
+      <c r="K28">
+        <v>1.136541479230731</v>
+      </c>
+      <c r="L28">
+        <v>0.9298906180552243</v>
+      </c>
+      <c r="M28">
+        <v>0.9778480483613802</v>
+      </c>
+      <c r="N28">
+        <v>1.136541479230731</v>
+      </c>
+      <c r="O28">
+        <v>0.9778480483613802</v>
+      </c>
+      <c r="P28">
+        <v>0.9538693332083023</v>
+      </c>
+      <c r="Q28">
+        <v>0.9768425236693028</v>
+      </c>
+      <c r="R28">
+        <v>1.014760048549112</v>
+      </c>
+      <c r="S28">
+        <v>0.9611918884646099</v>
+      </c>
+      <c r="T28">
+        <v>1.014760048549112</v>
+      </c>
+      <c r="U28">
+        <v>1.00502928615614</v>
+      </c>
+      <c r="V28">
+        <v>1.031331724771058</v>
+      </c>
+      <c r="W28">
+        <v>0.9978999542840616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.027036870232124</v>
+      </c>
+      <c r="D29">
+        <v>0.9791138271943766</v>
+      </c>
+      <c r="E29">
+        <v>1.093002971614116</v>
+      </c>
+      <c r="F29">
+        <v>1.093002971614116</v>
+      </c>
+      <c r="G29">
+        <v>0.9478935584460795</v>
+      </c>
+      <c r="H29">
+        <v>1.029046013161774</v>
+      </c>
+      <c r="I29">
+        <v>0.9687758830745543</v>
+      </c>
+      <c r="J29">
+        <v>0.9325039064806194</v>
+      </c>
+      <c r="K29">
+        <v>1.093002971614116</v>
+      </c>
+      <c r="L29">
+        <v>0.9325039064806194</v>
+      </c>
+      <c r="M29">
+        <v>0.9983778323287862</v>
+      </c>
+      <c r="N29">
+        <v>1.093002971614116</v>
+      </c>
+      <c r="O29">
+        <v>0.9983778323287862</v>
+      </c>
+      <c r="P29">
+        <v>0.9654408694047028</v>
+      </c>
+      <c r="Q29">
+        <v>0.9887458297615814</v>
+      </c>
+      <c r="R29">
+        <v>1.007961570141174</v>
+      </c>
+      <c r="S29">
+        <v>0.9699985220012607</v>
+      </c>
+      <c r="T29">
+        <v>1.007961570141174</v>
+      </c>
+      <c r="U29">
+        <v>1.000749634404475</v>
+      </c>
+      <c r="V29">
+        <v>1.019200301846403</v>
+      </c>
+      <c r="W29">
+        <v>0.9969688578165539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.026791978770716</v>
+      </c>
+      <c r="D30">
+        <v>0.9859532928243098</v>
+      </c>
+      <c r="E30">
+        <v>1.005849328279889</v>
+      </c>
+      <c r="F30">
+        <v>1.005849328279889</v>
+      </c>
+      <c r="G30">
+        <v>0.962248622512762</v>
+      </c>
+      <c r="H30">
+        <v>1.003074889085875</v>
+      </c>
+      <c r="I30">
+        <v>1.000129119646797</v>
+      </c>
+      <c r="J30">
+        <v>0.939212614959074</v>
+      </c>
+      <c r="K30">
+        <v>1.005849328279889</v>
+      </c>
+      <c r="L30">
+        <v>0.939212614959074</v>
+      </c>
+      <c r="M30">
+        <v>1.038557474088583</v>
+      </c>
+      <c r="N30">
+        <v>1.005849328279889</v>
+      </c>
+      <c r="O30">
+        <v>1.038557474088583</v>
+      </c>
+      <c r="P30">
+        <v>0.9888850445238285</v>
+      </c>
+      <c r="Q30">
+        <v>1.012255383456446</v>
+      </c>
+      <c r="R30">
+        <v>0.9945398057758487</v>
+      </c>
+      <c r="S30">
+        <v>0.9879077939573223</v>
+      </c>
+      <c r="T30">
+        <v>0.9945398057758487</v>
+      </c>
+      <c r="U30">
+        <v>0.992393177537964</v>
+      </c>
+      <c r="V30">
+        <v>0.995084407686349</v>
+      </c>
+      <c r="W30">
+        <v>0.9952271650210007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.033433787309241</v>
+      </c>
+      <c r="D31">
+        <v>0.9823313745140326</v>
+      </c>
+      <c r="E31">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="F31">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="G31">
+        <v>0.9549522763663848</v>
+      </c>
+      <c r="H31">
+        <v>1.000798600671228</v>
+      </c>
+      <c r="I31">
+        <v>1.002477832567554</v>
+      </c>
+      <c r="J31">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="K31">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="L31">
+        <v>0.9278780897883793</v>
+      </c>
+      <c r="M31">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="N31">
+        <v>1.000166443789177</v>
+      </c>
+      <c r="O31">
+        <v>1.051758535502132</v>
+      </c>
+      <c r="P31">
+        <v>0.9898183126452558</v>
+      </c>
+      <c r="Q31">
+        <v>1.017044955008082</v>
+      </c>
+      <c r="R31">
+        <v>0.9932676896932296</v>
+      </c>
+      <c r="S31">
+        <v>0.9873226666015147</v>
+      </c>
+      <c r="T31">
+        <v>0.9932676896932296</v>
+      </c>
+      <c r="U31">
+        <v>0.9905336108984304</v>
+      </c>
+      <c r="V31">
+        <v>0.9924601774765798</v>
+      </c>
+      <c r="W31">
+        <v>0.9942246175635161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.018749359041096</v>
+      </c>
+      <c r="D32">
+        <v>0.9767775873972597</v>
+      </c>
+      <c r="E32">
+        <v>1.16713988</v>
+      </c>
+      <c r="F32">
+        <v>1.16713988</v>
+      </c>
+      <c r="G32">
+        <v>0.9484801917808225</v>
+      </c>
+      <c r="H32">
+        <v>1.049626037671233</v>
+      </c>
+      <c r="I32">
+        <v>0.9410582575342465</v>
+      </c>
+      <c r="J32">
+        <v>0.949923395068493</v>
+      </c>
+      <c r="K32">
+        <v>1.16713988</v>
+      </c>
+      <c r="L32">
+        <v>0.949923395068493</v>
+      </c>
+      <c r="M32">
+        <v>0.9514722727397256</v>
+      </c>
+      <c r="N32">
+        <v>1.16713988</v>
+      </c>
+      <c r="O32">
+        <v>0.9514722727397256</v>
+      </c>
+      <c r="P32">
+        <v>0.9506978339041092</v>
+      </c>
+      <c r="Q32">
+        <v>0.9641249300684926</v>
+      </c>
+      <c r="R32">
+        <v>1.02284518260274</v>
+      </c>
+      <c r="S32">
+        <v>0.9593910850684928</v>
+      </c>
+      <c r="T32">
+        <v>1.02284518260274</v>
+      </c>
+      <c r="U32">
+        <v>1.01132828380137</v>
+      </c>
+      <c r="V32">
+        <v>1.042490603041096</v>
+      </c>
+      <c r="W32">
+        <v>1.00040337265411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8460924236842106</v>
+      </c>
+      <c r="D33">
+        <v>1.088140553684211</v>
+      </c>
+      <c r="E33">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="F33">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="G33">
+        <v>1.298412787368421</v>
+      </c>
+      <c r="H33">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="I33">
+        <v>1.118492768421053</v>
+      </c>
+      <c r="J33">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="K33">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="L33">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="M33">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="N33">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="O33">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="P33">
+        <v>1.206958409210526</v>
+      </c>
+      <c r="Q33">
+        <v>1.019342574473684</v>
+      </c>
+      <c r="R33">
+        <v>1.010404393508772</v>
+      </c>
+      <c r="S33">
+        <v>1.167352457368421</v>
+      </c>
+      <c r="T33">
+        <v>1.010404393508772</v>
+      </c>
+      <c r="U33">
+        <v>1.029838433552632</v>
+      </c>
+      <c r="V33">
+        <v>0.947330019263158</v>
+      </c>
+      <c r="W33">
+        <v>1.029341405855263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.016671253157895</v>
+      </c>
+      <c r="D34">
+        <v>0.9782923478947371</v>
+      </c>
+      <c r="E34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="F34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="G34">
+        <v>0.9553398905263157</v>
+      </c>
+      <c r="H34">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="I34">
+        <v>0.9468210921052629</v>
+      </c>
+      <c r="J34">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="K34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="L34">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="M34">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="N34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="O34">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="P34">
+        <v>0.9584299773684211</v>
+      </c>
+      <c r="Q34">
+        <v>0.9675428442105265</v>
+      </c>
+      <c r="R34">
+        <v>1.022177371754386</v>
+      </c>
+      <c r="S34">
+        <v>0.9650507675438598</v>
+      </c>
+      <c r="T34">
+        <v>1.022177371754386</v>
+      </c>
+      <c r="U34">
+        <v>1.011206115789474</v>
+      </c>
+      <c r="V34">
+        <v>1.038899324736842</v>
+      </c>
+      <c r="W34">
+        <v>1.000851320723684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.126384448686586</v>
+      </c>
+      <c r="D35">
+        <v>0.9341197602781596</v>
+      </c>
+      <c r="E35">
+        <v>0.9839852873261863</v>
+      </c>
+      <c r="F35">
+        <v>0.9839852873261863</v>
+      </c>
+      <c r="G35">
+        <v>0.8328564109007748</v>
+      </c>
+      <c r="H35">
+        <v>0.9975545077515375</v>
+      </c>
+      <c r="I35">
+        <v>1.015266349467207</v>
+      </c>
+      <c r="J35">
+        <v>0.7301794765563091</v>
+      </c>
+      <c r="K35">
+        <v>0.9839852873261863</v>
+      </c>
+      <c r="L35">
+        <v>0.7301794765563091</v>
+      </c>
+      <c r="M35">
+        <v>1.203606203526724</v>
+      </c>
+      <c r="N35">
+        <v>0.9839852873261863</v>
+      </c>
+      <c r="O35">
+        <v>1.203606203526724</v>
+      </c>
+      <c r="P35">
+        <v>0.9668928400415164</v>
+      </c>
+      <c r="Q35">
+        <v>1.068862981902442</v>
+      </c>
+      <c r="R35">
+        <v>0.9725903224697398</v>
+      </c>
+      <c r="S35">
+        <v>0.9559684801203975</v>
+      </c>
+      <c r="T35">
+        <v>0.9725903224697398</v>
+      </c>
+      <c r="U35">
+        <v>0.9629726819218447</v>
+      </c>
+      <c r="V35">
+        <v>0.9671752030027131</v>
+      </c>
+      <c r="W35">
+        <v>0.9779940555616855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000250745121097</v>
+      </c>
+      <c r="D36">
+        <v>0.9999757943779153</v>
+      </c>
+      <c r="E36">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="F36">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="G36">
+        <v>0.9997699614273681</v>
+      </c>
+      <c r="H36">
+        <v>0.9997737076151755</v>
+      </c>
+      <c r="I36">
+        <v>1.000366017212265</v>
+      </c>
+      <c r="J36">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="K36">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="L36">
+        <v>0.9993718849098128</v>
+      </c>
+      <c r="M36">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="N36">
+        <v>0.9990578801361627</v>
+      </c>
+      <c r="O36">
+        <v>1.000806786820845</v>
+      </c>
+      <c r="P36">
+        <v>1.000089335865329</v>
+      </c>
+      <c r="Q36">
+        <v>1.00039129059938</v>
+      </c>
+      <c r="R36">
+        <v>0.9997455172889403</v>
+      </c>
+      <c r="S36">
+        <v>1.000051488702858</v>
+      </c>
+      <c r="T36">
+        <v>0.9997455172889403</v>
+      </c>
+      <c r="U36">
+        <v>0.999803086561184</v>
+      </c>
+      <c r="V36">
+        <v>0.9996540452761797</v>
+      </c>
+      <c r="W36">
+        <v>0.9999215972025803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999902994057901</v>
+      </c>
+      <c r="D37">
+        <v>0.9998587890594165</v>
+      </c>
+      <c r="E37">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="F37">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="G37">
+        <v>0.9998720467588212</v>
+      </c>
+      <c r="H37">
+        <v>1.00030345129486</v>
+      </c>
+      <c r="I37">
+        <v>0.9995401336008881</v>
+      </c>
+      <c r="J37">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="K37">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="L37">
+        <v>1.000142786748788</v>
+      </c>
+      <c r="M37">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="N37">
+        <v>1.001250920401314</v>
+      </c>
+      <c r="O37">
+        <v>0.9994329870525496</v>
+      </c>
+      <c r="P37">
+        <v>0.999787886900669</v>
+      </c>
+      <c r="Q37">
+        <v>0.9996458880559831</v>
+      </c>
+      <c r="R37">
+        <v>1.000275564734217</v>
+      </c>
+      <c r="S37">
+        <v>0.9998115209535848</v>
+      </c>
+      <c r="T37">
+        <v>1.000275564734217</v>
+      </c>
+      <c r="U37">
+        <v>1.000171370815517</v>
+      </c>
+      <c r="V37">
+        <v>1.000387280732677</v>
+      </c>
+      <c r="W37">
+        <v>1.000048926790303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000934172303654</v>
+      </c>
+      <c r="D38">
+        <v>0.9996267170278308</v>
+      </c>
+      <c r="E38">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="F38">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="G38">
+        <v>0.9985943766747325</v>
+      </c>
+      <c r="H38">
+        <v>1.000185996377965</v>
+      </c>
+      <c r="I38">
+        <v>1.000095673187693</v>
+      </c>
+      <c r="J38">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="K38">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="L38">
+        <v>0.997468950011978</v>
+      </c>
+      <c r="M38">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="N38">
+        <v>1.000001496582624</v>
+      </c>
+      <c r="O38">
+        <v>1.001378062745479</v>
+      </c>
+      <c r="P38">
+        <v>0.9994235063787287</v>
+      </c>
+      <c r="Q38">
+        <v>1.000502389886655</v>
+      </c>
+      <c r="R38">
+        <v>0.9996161697800271</v>
+      </c>
+      <c r="S38">
+        <v>0.9994912432617626</v>
+      </c>
+      <c r="T38">
+        <v>0.9996161697800271</v>
+      </c>
+      <c r="U38">
+        <v>0.999618806591978</v>
+      </c>
+      <c r="V38">
+        <v>0.9996953445901072</v>
+      </c>
+      <c r="W38">
+        <v>0.9997856806139946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.002625641925689</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9992562727515089</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9977981512755734</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9977981512755734</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9962379108370836</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000051312972357</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.001091486779721</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9924602117628354</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9977981512755734</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9924602117628354</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.004821355080959</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9977981512755734</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.004821355080959</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9986407834218972</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.002038813916234</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9983599060397893</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9988459465317678</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9983599060397893</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9985839977177192</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9984268284292901</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9992927929232158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.020622774548412</v>
+      </c>
+      <c r="D40">
+        <v>0.9894994845444218</v>
+      </c>
+      <c r="E40">
+        <v>0.9961711781089936</v>
+      </c>
+      <c r="F40">
+        <v>0.9961711781089936</v>
+      </c>
+      <c r="G40">
+        <v>0.9727083858652503</v>
+      </c>
+      <c r="H40">
+        <v>0.9994425689629421</v>
+      </c>
+      <c r="I40">
+        <v>1.002995642995568</v>
+      </c>
+      <c r="J40">
+        <v>0.9553015031043665</v>
+      </c>
+      <c r="K40">
+        <v>0.9961711781089936</v>
+      </c>
+      <c r="L40">
+        <v>0.9553015031043665</v>
+      </c>
+      <c r="M40">
+        <v>1.03372336807084</v>
+      </c>
+      <c r="N40">
+        <v>0.9961711781089936</v>
+      </c>
+      <c r="O40">
+        <v>1.03372336807084</v>
+      </c>
+      <c r="P40">
+        <v>0.9945124355876029</v>
+      </c>
+      <c r="Q40">
+        <v>1.011611426307631</v>
+      </c>
+      <c r="R40">
+        <v>0.9950653497613998</v>
+      </c>
+      <c r="S40">
+        <v>0.9928414519065426</v>
+      </c>
+      <c r="T40">
+        <v>0.9950653497613998</v>
+      </c>
+      <c r="U40">
+        <v>0.9936738834571553</v>
+      </c>
+      <c r="V40">
+        <v>0.994173342387523</v>
+      </c>
+      <c r="W40">
+        <v>0.9963081132750993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.059337371890939</v>
+      </c>
+      <c r="D41">
+        <v>0.9659445468758016</v>
+      </c>
+      <c r="E41">
+        <v>1.104104667318134</v>
+      </c>
+      <c r="F41">
+        <v>1.104104667318134</v>
+      </c>
+      <c r="G41">
+        <v>0.896319662851746</v>
+      </c>
+      <c r="H41">
+        <v>1.039367501553292</v>
+      </c>
+      <c r="I41">
+        <v>0.9689535429763491</v>
+      </c>
+      <c r="J41">
+        <v>0.8398328007021447</v>
+      </c>
+      <c r="K41">
+        <v>1.104104667318134</v>
+      </c>
+      <c r="L41">
+        <v>0.8398328007021447</v>
+      </c>
+      <c r="M41">
+        <v>1.041062615187346</v>
+      </c>
+      <c r="N41">
+        <v>1.104104667318134</v>
+      </c>
+      <c r="O41">
+        <v>1.041062615187346</v>
+      </c>
+      <c r="P41">
+        <v>0.9404477079447452</v>
+      </c>
+      <c r="Q41">
+        <v>1.003503581031574</v>
+      </c>
+      <c r="R41">
+        <v>0.9950000277358749</v>
+      </c>
+      <c r="S41">
+        <v>0.9489466542550974</v>
+      </c>
+      <c r="T41">
+        <v>0.9950000277358749</v>
+      </c>
+      <c r="U41">
+        <v>0.9877361575208565</v>
+      </c>
+      <c r="V41">
+        <v>1.011009859480312</v>
+      </c>
+      <c r="W41">
+        <v>0.989365338669469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.083555191835948</v>
+      </c>
+      <c r="D42">
+        <v>0.9495377183840468</v>
+      </c>
+      <c r="E42">
+        <v>1.150786882902145</v>
+      </c>
+      <c r="F42">
+        <v>1.150786882902145</v>
+      </c>
+      <c r="G42">
+        <v>0.8562531026868151</v>
+      </c>
+      <c r="H42">
+        <v>1.053797886771556</v>
+      </c>
+      <c r="I42">
+        <v>0.953940442333193</v>
+      </c>
+      <c r="J42">
+        <v>0.7844995265685263</v>
+      </c>
+      <c r="K42">
+        <v>1.150786882902145</v>
+      </c>
+      <c r="L42">
+        <v>0.7844995265685263</v>
+      </c>
+      <c r="M42">
+        <v>1.05686838731488</v>
+      </c>
+      <c r="N42">
+        <v>1.150786882902145</v>
+      </c>
+      <c r="O42">
+        <v>1.05686838731488</v>
+      </c>
+      <c r="P42">
+        <v>0.9206839569417031</v>
+      </c>
+      <c r="Q42">
+        <v>1.003203052849463</v>
+      </c>
+      <c r="R42">
+        <v>0.9973849322618502</v>
+      </c>
+      <c r="S42">
+        <v>0.9303018774224844</v>
+      </c>
+      <c r="T42">
+        <v>0.9973849322618502</v>
+      </c>
+      <c r="U42">
+        <v>0.9854231287923993</v>
+      </c>
+      <c r="V42">
+        <v>1.018495879614348</v>
+      </c>
+      <c r="W42">
+        <v>0.9861548923496386</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007479220619864</v>
+        <v>1.000243422951854</v>
       </c>
       <c r="D3">
-        <v>0.9967110786392752</v>
+        <v>0.9998710405359807</v>
       </c>
       <c r="E3">
-        <v>0.9984801509501645</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="F3">
-        <v>1.007479220619864</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="G3">
-        <v>0.9987611362530835</v>
+        <v>0.9998147815237165</v>
       </c>
       <c r="H3">
-        <v>1.001265923316536</v>
+        <v>0.999789967839379</v>
       </c>
       <c r="I3">
-        <v>1.007479220619864</v>
+        <v>1.000196100839019</v>
       </c>
       <c r="J3">
-        <v>0.9967110786392752</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="K3">
-        <v>0.9974068278004922</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="L3">
-        <v>1.002263644948268</v>
+        <v>0.9997110926159413</v>
       </c>
       <c r="M3">
-        <v>0.9970838296682837</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="N3">
-        <v>1.007479220619864</v>
+        <v>0.9994621346108097</v>
       </c>
       <c r="O3">
-        <v>0.9984801509501645</v>
+        <v>1.000646783850277</v>
       </c>
       <c r="P3">
-        <v>0.9975956147947198</v>
+        <v>1.000178938233109</v>
       </c>
       <c r="Q3">
-        <v>0.9986206436016241</v>
+        <v>1.000258912193129</v>
       </c>
       <c r="R3">
-        <v>1.000890150069768</v>
+        <v>0.9999400036923426</v>
       </c>
       <c r="S3">
-        <v>0.9979841219475077</v>
+        <v>1.0000763056674</v>
       </c>
       <c r="T3">
-        <v>1.000890150069768</v>
+        <v>0.9999400036923426</v>
       </c>
       <c r="U3">
-        <v>1.000357896615597</v>
+        <v>0.9999227629032521</v>
       </c>
       <c r="V3">
-        <v>1.00178216141645</v>
+        <v>0.9998306372447636</v>
       </c>
       <c r="W3">
-        <v>0.9999314765244957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999669155958721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014508918581146</v>
+        <v>1.020622774548412</v>
       </c>
       <c r="D4">
-        <v>0.9936588932057756</v>
+        <v>0.9894994845444218</v>
       </c>
       <c r="E4">
-        <v>0.9969679277897998</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="F4">
-        <v>1.014508918581146</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="G4">
-        <v>0.9976374295971374</v>
+        <v>0.9727083858652503</v>
       </c>
       <c r="H4">
-        <v>1.002406834468507</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="I4">
-        <v>1.014508918581146</v>
+        <v>1.002995642995568</v>
       </c>
       <c r="J4">
-        <v>0.9936588932057756</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="K4">
-        <v>0.9949699586434895</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="L4">
-        <v>1.00441020513607</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="M4">
-        <v>0.9943899021710558</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="N4">
-        <v>1.014508918581146</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="O4">
-        <v>0.9969679277897998</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="P4">
-        <v>0.9953134104977877</v>
+        <v>0.9945124355876029</v>
       </c>
       <c r="Q4">
-        <v>0.9973026786934687</v>
+        <v>1.011611426307631</v>
       </c>
       <c r="R4">
-        <v>1.001711913192241</v>
+        <v>0.9950653497613998</v>
       </c>
       <c r="S4">
-        <v>0.9960880835309043</v>
+        <v>0.9928414519065426</v>
       </c>
       <c r="T4">
-        <v>1.001711913192241</v>
+        <v>0.9950653497613998</v>
       </c>
       <c r="U4">
-        <v>1.000693292293465</v>
+        <v>0.9936738834571553</v>
       </c>
       <c r="V4">
-        <v>1.003456417551001</v>
+        <v>0.994173342387523</v>
       </c>
       <c r="W4">
-        <v>0.9998687586991226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9963081132750993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.027003239377252</v>
+        <v>1.032481552067721</v>
       </c>
       <c r="D5">
-        <v>0.9874610085842321</v>
+        <v>0.9825416063040371</v>
       </c>
       <c r="E5">
-        <v>0.9949831284655811</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="F5">
-        <v>1.027003239377252</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="G5">
-        <v>0.9953685156798773</v>
+        <v>0.9536566257420754</v>
       </c>
       <c r="H5">
-        <v>1.00487652594314</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="I5">
-        <v>1.027003239377252</v>
+        <v>0.9985658590273825</v>
       </c>
       <c r="J5">
-        <v>0.9874610085842321</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K5">
-        <v>0.9906582106878519</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="L5">
-        <v>1.008184537478926</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="M5">
-        <v>0.989057766925053</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="N5">
-        <v>1.027003239377252</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="O5">
-        <v>0.9949831284655811</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="P5">
-        <v>0.9912220685249067</v>
+        <v>0.9856019853710369</v>
       </c>
       <c r="Q5">
-        <v>0.9951758220727291</v>
+        <v>1.013658516844381</v>
       </c>
       <c r="R5">
-        <v>1.003149125475688</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="S5">
-        <v>0.9926042175765636</v>
+        <v>0.9845818590153703</v>
       </c>
       <c r="T5">
-        <v>1.003149125475688</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="U5">
-        <v>1.001203973026735</v>
+        <v>0.9912933736761536</v>
       </c>
       <c r="V5">
-        <v>1.006363826296839</v>
+        <v>0.9953202824726235</v>
       </c>
       <c r="W5">
-        <v>0.999699116642739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9943462768659947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039218443932764</v>
+        <v>1.126384448686586</v>
       </c>
       <c r="D6">
-        <v>0.9813808582936223</v>
+        <v>0.9341197602781596</v>
       </c>
       <c r="E6">
-        <v>0.9930056534270264</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="F6">
-        <v>1.039218443932764</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="G6">
-        <v>0.9931742669400832</v>
+        <v>0.8328564109007748</v>
       </c>
       <c r="H6">
-        <v>1.007264583092434</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="I6">
-        <v>1.039218443932764</v>
+        <v>1.015266349467207</v>
       </c>
       <c r="J6">
-        <v>0.9813808582936223</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="K6">
-        <v>0.9864565315961366</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="L6">
-        <v>1.011883745235539</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="M6">
-        <v>0.9838591919332281</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="N6">
-        <v>1.039218443932764</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="O6">
-        <v>0.9930056534270264</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="P6">
-        <v>0.9871932558603244</v>
+        <v>0.9668928400415164</v>
       </c>
       <c r="Q6">
-        <v>0.9930899601835548</v>
+        <v>1.068862981902442</v>
       </c>
       <c r="R6">
-        <v>1.004534985217804</v>
+        <v>0.9725903224697398</v>
       </c>
       <c r="S6">
-        <v>0.9891869262202441</v>
+        <v>0.9559684801203975</v>
       </c>
       <c r="T6">
-        <v>1.004534985217804</v>
+        <v>0.9725903224697398</v>
       </c>
       <c r="U6">
-        <v>1.001694805648374</v>
+        <v>0.9629726819218447</v>
       </c>
       <c r="V6">
-        <v>1.009199533305252</v>
+        <v>0.9671752030027131</v>
       </c>
       <c r="W6">
-        <v>0.9995304093063541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9779940555616855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998497590001298</v>
+        <v>1.001418925130225</v>
       </c>
       <c r="D7">
-        <v>0.9997197167459833</v>
+        <v>0.9985922629471237</v>
       </c>
       <c r="E7">
-        <v>1.000320980767071</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="F7">
-        <v>0.9998497590001298</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="G7">
-        <v>0.9999168748972009</v>
+        <v>0.9966404637511538</v>
       </c>
       <c r="H7">
-        <v>1.000158867812154</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="I7">
-        <v>0.9998497590001298</v>
+        <v>0.9969403889855959</v>
       </c>
       <c r="J7">
-        <v>0.9997197167459833</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K7">
-        <v>1.00006177632645</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="L7">
-        <v>0.9999446055374837</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="M7">
-        <v>0.999824865401289</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="N7">
-        <v>0.9998497590001298</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="O7">
-        <v>1.000320980767071</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="P7">
-        <v>1.000020348756527</v>
+        <v>0.9971481677408398</v>
       </c>
       <c r="Q7">
-        <v>1.000118927832136</v>
+        <v>0.9983383699190804</v>
       </c>
       <c r="R7">
-        <v>0.9999634855043947</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="S7">
-        <v>0.9999858574700852</v>
+        <v>0.9976295328096011</v>
       </c>
       <c r="T7">
-        <v>0.9999634855043947</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="U7">
-        <v>0.9999518328525963</v>
+        <v>1.000428229347165</v>
       </c>
       <c r="V7">
-        <v>0.999931418082103</v>
+        <v>1.002107447269704</v>
       </c>
       <c r="W7">
-        <v>0.9999746808109702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999251133313306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994621346108102</v>
+        <v>0.9999902994057901</v>
       </c>
       <c r="D8">
-        <v>0.9997110926159409</v>
+        <v>0.9998587890594165</v>
       </c>
       <c r="E8">
-        <v>1.000646783850277</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="F8">
-        <v>0.9994621346108102</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="G8">
-        <v>0.9998710405359807</v>
+        <v>0.9998720467588212</v>
       </c>
       <c r="H8">
-        <v>1.000243422951854</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="I8">
-        <v>0.9994621346108102</v>
+        <v>0.9995401336008881</v>
       </c>
       <c r="J8">
-        <v>0.9997110926159409</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="K8">
-        <v>1.00019610083902</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="L8">
-        <v>0.9997899678393787</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="M8">
-        <v>0.9998147815237167</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="N8">
-        <v>0.9994621346108102</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="O8">
-        <v>1.000646783850277</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="P8">
-        <v>1.000178938233109</v>
+        <v>0.999787886900669</v>
       </c>
       <c r="Q8">
-        <v>1.000258912193129</v>
+        <v>0.9996458880559831</v>
       </c>
       <c r="R8">
-        <v>0.9999400036923428</v>
+        <v>1.000275564734217</v>
       </c>
       <c r="S8">
-        <v>1.0000763056674</v>
+        <v>0.9998115209535848</v>
       </c>
       <c r="T8">
-        <v>0.9999400036923426</v>
+        <v>1.000275564734217</v>
       </c>
       <c r="U8">
-        <v>0.9999227629032521</v>
+        <v>1.000171370815517</v>
       </c>
       <c r="V8">
-        <v>0.9998306372447636</v>
+        <v>1.000387280732677</v>
       </c>
       <c r="W8">
-        <v>0.9999669155958723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>1.000048926790303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9990080388634267</v>
+        <v>1.002406834468507</v>
       </c>
       <c r="D9">
-        <v>1.000396982951842</v>
+        <v>0.9976374295971374</v>
       </c>
       <c r="E9">
-        <v>1.00055188611362</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="F9">
-        <v>0.9990080388634267</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="G9">
-        <v>0.999974473884071</v>
+        <v>0.9943899021710558</v>
       </c>
       <c r="H9">
-        <v>1.00003395747452</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="I9">
-        <v>0.9990080388634267</v>
+        <v>0.9949699586434895</v>
       </c>
       <c r="J9">
-        <v>1.000396982951842</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K9">
-        <v>1.000326596950712</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="L9">
-        <v>0.9995945964503098</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="M9">
-        <v>1.000226979460058</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="N9">
-        <v>0.9990080388634267</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="O9">
-        <v>1.00055188611362</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="P9">
-        <v>1.000474434532731</v>
+        <v>0.9953134104977877</v>
       </c>
       <c r="Q9">
-        <v>1.000263179998846</v>
+        <v>0.9973026786934687</v>
       </c>
       <c r="R9">
-        <v>0.9999856359762961</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="S9">
-        <v>1.000307780983178</v>
+        <v>0.9960880835309043</v>
       </c>
       <c r="T9">
-        <v>0.9999856359762962</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="U9">
-        <v>0.9999828454532399</v>
+        <v>1.000693292293465</v>
       </c>
       <c r="V9">
-        <v>0.9997878841352772</v>
+        <v>1.003456417551001</v>
       </c>
       <c r="W9">
-        <v>1.00001418901857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9998687586991226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9980177367932583</v>
+        <v>1.129317414790299</v>
       </c>
       <c r="D10">
-        <v>1.000099388044863</v>
+        <v>0.9324175989848534</v>
       </c>
       <c r="E10">
-        <v>1.001568509281302</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="F10">
-        <v>0.9980177367932583</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="G10">
-        <v>0.9997976417509225</v>
+        <v>0.8297667347938126</v>
       </c>
       <c r="H10">
-        <v>1.000370388488293</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="I10">
-        <v>0.9980177367932583</v>
+        <v>1.0162632842884</v>
       </c>
       <c r="J10">
-        <v>1.000099388044863</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="K10">
-        <v>1.000679449752607</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="L10">
-        <v>0.9992075800409874</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="M10">
-        <v>1.000034523422218</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="N10">
-        <v>0.9980177367932583</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="O10">
-        <v>1.001568509281302</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="P10">
-        <v>1.000833948663082</v>
+        <v>0.9675629600571658</v>
       </c>
       <c r="Q10">
-        <v>1.000683075516112</v>
+        <v>1.070948097860739</v>
       </c>
       <c r="R10">
-        <v>0.9998952113731409</v>
+        <v>0.9722046694603129</v>
       </c>
       <c r="S10">
-        <v>1.000488513025696</v>
+        <v>0.9558478396997283</v>
       </c>
       <c r="T10">
-        <v>0.9998952113731409</v>
+        <v>0.9722046694603129</v>
       </c>
       <c r="U10">
-        <v>0.9998708189675862</v>
+        <v>0.962257901841448</v>
       </c>
       <c r="V10">
-        <v>0.9995002025327206</v>
+        <v>0.9661039391264797</v>
       </c>
       <c r="W10">
-        <v>0.9999719021968063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9775995839711287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9962192039899348</v>
+        <v>1.089423723036214</v>
       </c>
       <c r="D11">
-        <v>1.002057596536896</v>
+        <v>0.9498084201819667</v>
       </c>
       <c r="E11">
-        <v>1.001780038078882</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="F11">
-        <v>0.9962192039899348</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="G11">
-        <v>0.9999979920158375</v>
+        <v>0.8514965833354478</v>
       </c>
       <c r="H11">
-        <v>0.9999173736351104</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="I11">
-        <v>0.9962192039899348</v>
+        <v>0.9651404975795658</v>
       </c>
       <c r="J11">
-        <v>1.002057596536896</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="K11">
-        <v>1.001219138402376</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="L11">
-        <v>0.9984289376874705</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="M11">
-        <v>1.001175098971444</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="N11">
-        <v>0.9962192039899348</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="O11">
-        <v>1.001780038078882</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="P11">
-        <v>1.001918817307889</v>
+        <v>0.9237177921857533</v>
       </c>
       <c r="Q11">
-        <v>1.00088901504736</v>
+        <v>1.014313018330753</v>
       </c>
       <c r="R11">
-        <v>1.000018946201904</v>
+        <v>0.9897935156976779</v>
       </c>
       <c r="S11">
-        <v>1.001278542210538</v>
+        <v>0.932414668184491</v>
       </c>
       <c r="T11">
-        <v>1.000018946201904</v>
+        <v>0.9897935156976779</v>
       </c>
       <c r="U11">
-        <v>1.000013707655388</v>
+        <v>0.9797972418187501</v>
       </c>
       <c r="V11">
-        <v>0.9992548069222972</v>
+        <v>1.008226785999305</v>
       </c>
       <c r="W11">
-        <v>1.000099422414744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9840154006816384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.012353087906899</v>
+        <v>1.041329447568419</v>
       </c>
       <c r="D12">
-        <v>0.9842976226294291</v>
+        <v>0.9782266595684213</v>
       </c>
       <c r="E12">
-        <v>0.9877932451931217</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="F12">
-        <v>1.012353087906899</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="G12">
-        <v>1.004995445085638</v>
+        <v>0.9442856264947375</v>
       </c>
       <c r="H12">
-        <v>0.9972790170282894</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="I12">
-        <v>1.012353087906899</v>
+        <v>1.003191149463161</v>
       </c>
       <c r="J12">
-        <v>0.9842976226294291</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="K12">
-        <v>0.99681547564494</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="M12">
-        <v>0.9958031236306706</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="N12">
-        <v>1.012353087906899</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="O12">
-        <v>0.9877932451931217</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="P12">
-        <v>0.9860454339112754</v>
+        <v>0.9873518466631567</v>
       </c>
       <c r="Q12">
-        <v>0.9963943451393801</v>
+        <v>1.021160885121052</v>
       </c>
       <c r="R12">
-        <v>0.9948146519098167</v>
+        <v>0.9915466143578936</v>
       </c>
       <c r="S12">
-        <v>0.9923621043027296</v>
+        <v>0.9843101176315782</v>
       </c>
       <c r="T12">
-        <v>0.9948146519098167</v>
+        <v>0.9915466143578936</v>
       </c>
       <c r="U12">
-        <v>0.9973598502037722</v>
+        <v>0.9882166256605256</v>
       </c>
       <c r="V12">
-        <v>1.000358497744398</v>
+        <v>0.9905605304778939</v>
       </c>
       <c r="W12">
-        <v>0.9986232422136043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9928297587157893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001769513228698</v>
+        <v>0.9846558389662474</v>
       </c>
       <c r="D13">
-        <v>1.008235246009658</v>
+        <v>1.007524504419261</v>
       </c>
       <c r="E13">
-        <v>1.012417350723668</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="F13">
-        <v>1.001769513228698</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="G13">
-        <v>0.9911394897583975</v>
+        <v>1.027120713480766</v>
       </c>
       <c r="H13">
-        <v>1.006771035746939</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="I13">
-        <v>1.001769513228698</v>
+        <v>1.005821484749387</v>
       </c>
       <c r="J13">
-        <v>1.008235246009658</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="K13">
-        <v>0.9984600934298319</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804563</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="M13">
-        <v>0.9971331293955223</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="N13">
-        <v>1.001769513228698</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="O13">
-        <v>1.012417350723668</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="P13">
-        <v>1.010326298366663</v>
+        <v>1.016238419865296</v>
       </c>
       <c r="Q13">
-        <v>1.001778420241033</v>
+        <v>0.9974357125555582</v>
       </c>
       <c r="R13">
-        <v>1.007474036654008</v>
+        <v>1.003608189860024</v>
       </c>
       <c r="S13">
-        <v>1.003930695497241</v>
+        <v>1.013333781383284</v>
       </c>
       <c r="T13">
-        <v>1.007474036654008</v>
+        <v>1.003608189860024</v>
       </c>
       <c r="U13">
-        <v>1.003390399930105</v>
+        <v>1.004587268499833</v>
       </c>
       <c r="V13">
-        <v>1.003066222589824</v>
+        <v>0.9993393607697628</v>
       </c>
       <c r="W13">
-        <v>1.001205784571646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.003271512107203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4456680743781916</v>
+        <v>1.225409299999999</v>
       </c>
       <c r="D14">
-        <v>1.987291489559742</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="E14">
-        <v>0.7094658101932654</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="F14">
-        <v>0.4456680743781916</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="G14">
-        <v>1.200402461244876</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="H14">
-        <v>0.6357386469968243</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="I14">
-        <v>0.4456680743781916</v>
+        <v>1.030420399999999</v>
       </c>
       <c r="J14">
-        <v>1.987291489559742</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="K14">
-        <v>1.159279919901514</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L14">
-        <v>0.7807582616836948</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="M14">
-        <v>1.62568492752117</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="N14">
-        <v>0.4456680743781916</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="O14">
-        <v>0.7094658101932654</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="P14">
-        <v>1.348378649876504</v>
+        <v>0.9454310349999993</v>
       </c>
       <c r="Q14">
-        <v>0.9549341357190709</v>
+        <v>1.12522809</v>
       </c>
       <c r="R14">
-        <v>1.047475124710399</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="S14">
-        <v>1.299053253665961</v>
+        <v>0.9244541166666664</v>
       </c>
       <c r="T14">
-        <v>1.0474751247104</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="U14">
-        <v>1.085706958844019</v>
+        <v>0.9337992674999996</v>
       </c>
       <c r="V14">
-        <v>0.9576991819508536</v>
+        <v>0.9394063579999996</v>
       </c>
       <c r="W14">
-        <v>1.06803619893491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9609051712499999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8001049906340567</v>
+        <v>0.44749343</v>
       </c>
       <c r="D15">
-        <v>1.220094472832538</v>
+        <v>1.280454</v>
       </c>
       <c r="E15">
-        <v>0.956837608256232</v>
+        <v>0.25020352</v>
       </c>
       <c r="F15">
-        <v>0.8001049906340567</v>
+        <v>0.25020352</v>
       </c>
       <c r="G15">
-        <v>1.059186727830439</v>
+        <v>1.9579371</v>
       </c>
       <c r="H15">
-        <v>0.9111403904141306</v>
+        <v>0.67340451</v>
       </c>
       <c r="I15">
-        <v>0.8001049906340567</v>
+        <v>1.2003094</v>
       </c>
       <c r="J15">
-        <v>1.220094472832538</v>
+        <v>2.5748425</v>
       </c>
       <c r="K15">
-        <v>1.064226706261459</v>
+        <v>0.25020352</v>
       </c>
       <c r="L15">
-        <v>0.9342608909187008</v>
+        <v>2.5748425</v>
       </c>
       <c r="M15">
-        <v>1.155875155806751</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="N15">
-        <v>0.8001049906340567</v>
+        <v>0.25020352</v>
       </c>
       <c r="O15">
-        <v>0.956837608256232</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P15">
-        <v>1.088466040544385</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q15">
-        <v>1.008012168043335</v>
+        <v>0.901680085</v>
       </c>
       <c r="R15">
-        <v>0.9923456905742757</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S15">
-        <v>1.078706269639736</v>
+        <v>1.45940089</v>
       </c>
       <c r="T15">
-        <v>0.9923456905742757</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U15">
-        <v>1.009055949888316</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V15">
-        <v>0.9672657580374645</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W15">
-        <v>1.012715867869288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>1.11344382875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9990578801361627</v>
+        <v>1.2254093</v>
       </c>
       <c r="D16">
-        <v>0.9993718849098129</v>
+        <v>0.88250028</v>
       </c>
       <c r="E16">
-        <v>1.000806786820845</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F16">
-        <v>0.9990578801361627</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G16">
-        <v>0.9999757943779153</v>
+        <v>0.7044202899999999</v>
       </c>
       <c r="H16">
-        <v>1.000250745121097</v>
+        <v>0.99179431</v>
       </c>
       <c r="I16">
-        <v>0.9990578801361627</v>
+        <v>1.0304204</v>
       </c>
       <c r="J16">
-        <v>0.9993718849098129</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K16">
-        <v>1.000366017212265</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="L16">
-        <v>0.9997737076151757</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="M16">
-        <v>0.9997699614273682</v>
+        <v>1.3679559</v>
       </c>
       <c r="N16">
-        <v>0.9990578801361627</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="O16">
-        <v>1.000806786820845</v>
+        <v>1.3679559</v>
       </c>
       <c r="P16">
-        <v>1.000089335865329</v>
+        <v>0.9454310349999998</v>
       </c>
       <c r="Q16">
-        <v>1.00039129059938</v>
+        <v>1.12522809</v>
       </c>
       <c r="R16">
-        <v>0.9997455172889403</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="S16">
-        <v>1.000051488702858</v>
+        <v>0.9244541166666665</v>
       </c>
       <c r="T16">
-        <v>0.9997455172889403</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="U16">
-        <v>0.999803086561184</v>
+        <v>0.9337992674999999</v>
       </c>
       <c r="V16">
-        <v>0.9996540452761797</v>
+        <v>0.9394063579999999</v>
       </c>
       <c r="W16">
-        <v>0.9999215972025803</v>
+        <v>0.9609051712499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001250920401314</v>
+        <v>0.62482423</v>
       </c>
       <c r="D17">
-        <v>1.000142786748789</v>
+        <v>1.2080974</v>
       </c>
       <c r="E17">
-        <v>0.9994329870525497</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="F17">
-        <v>1.001250920401314</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="G17">
-        <v>0.9998587890594167</v>
+        <v>1.6449084</v>
       </c>
       <c r="H17">
-        <v>0.9999902994057902</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="I17">
-        <v>1.001250920401314</v>
+        <v>1.1698683</v>
       </c>
       <c r="J17">
-        <v>1.000142786748789</v>
+        <v>2.0119774</v>
       </c>
       <c r="K17">
-        <v>0.9995401336008879</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="L17">
-        <v>1.00030345129486</v>
+        <v>2.0119774</v>
       </c>
       <c r="M17">
-        <v>0.9998720467588209</v>
+        <v>0.70705465</v>
       </c>
       <c r="N17">
-        <v>1.001250920401314</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="O17">
-        <v>0.9994329870525497</v>
+        <v>0.70705465</v>
       </c>
       <c r="P17">
-        <v>0.9997878869006693</v>
+        <v>1.359516025</v>
       </c>
       <c r="Q17">
-        <v>0.9996458880559832</v>
+        <v>0.9575760250000001</v>
       </c>
       <c r="R17">
-        <v>1.000275564734218</v>
+        <v>1.0451159</v>
       </c>
       <c r="S17">
-        <v>0.9998115209535851</v>
+        <v>1.30904315</v>
       </c>
       <c r="T17">
-        <v>1.000275564734218</v>
+        <v>1.0451159</v>
       </c>
       <c r="U17">
-        <v>1.000171370815517</v>
+        <v>1.085861275</v>
       </c>
       <c r="V17">
-        <v>1.000387280732677</v>
+        <v>0.95195215</v>
       </c>
       <c r="W17">
-        <v>1.000048926790303</v>
+        <v>1.069262535</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000001496582623</v>
+        <v>1.018749359041096</v>
       </c>
       <c r="D18">
-        <v>0.9974689500119778</v>
+        <v>0.9767775873972597</v>
       </c>
       <c r="E18">
-        <v>1.001378062745479</v>
+        <v>1.16713988</v>
       </c>
       <c r="F18">
-        <v>1.000001496582623</v>
+        <v>1.16713988</v>
       </c>
       <c r="G18">
-        <v>0.9996267170278308</v>
+        <v>0.9484801917808225</v>
       </c>
       <c r="H18">
-        <v>1.000934172303654</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="I18">
-        <v>1.000001496582623</v>
+        <v>0.9410582575342465</v>
       </c>
       <c r="J18">
-        <v>0.9974689500119778</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="K18">
-        <v>1.000095673187694</v>
+        <v>1.16713988</v>
       </c>
       <c r="L18">
-        <v>1.000185996377965</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="M18">
-        <v>0.9985943766747325</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="N18">
-        <v>1.000001496582623</v>
+        <v>1.16713988</v>
       </c>
       <c r="O18">
-        <v>1.001378062745479</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="P18">
-        <v>0.9994235063787285</v>
+        <v>0.9506978339041092</v>
       </c>
       <c r="Q18">
-        <v>1.000502389886655</v>
+        <v>0.9641249300684926</v>
       </c>
       <c r="R18">
-        <v>0.9996161697800267</v>
+        <v>1.02284518260274</v>
       </c>
       <c r="S18">
-        <v>0.9994912432617626</v>
+        <v>0.9593910850684928</v>
       </c>
       <c r="T18">
-        <v>0.9996161697800267</v>
+        <v>1.02284518260274</v>
       </c>
       <c r="U18">
-        <v>0.9996188065919778</v>
+        <v>1.01132828380137</v>
       </c>
       <c r="V18">
-        <v>0.9996953445901069</v>
+        <v>1.042490603041096</v>
       </c>
       <c r="W18">
-        <v>0.9997856806139944</v>
+        <v>1.00040337265411</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9977981512755734</v>
+        <v>0.8460924236842106</v>
       </c>
       <c r="D19">
-        <v>0.9924602117628354</v>
+        <v>1.088140553684211</v>
       </c>
       <c r="E19">
-        <v>1.004821355080959</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="F19">
-        <v>0.9977981512755734</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="G19">
-        <v>0.9992562727515089</v>
+        <v>1.298412787368421</v>
       </c>
       <c r="H19">
-        <v>1.002625641925689</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="I19">
-        <v>0.9977981512755734</v>
+        <v>1.118492768421053</v>
       </c>
       <c r="J19">
-        <v>0.9924602117628354</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="K19">
-        <v>1.001091486779721</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="L19">
-        <v>1.000051312972357</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="M19">
-        <v>0.9962379108370836</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="N19">
-        <v>0.9977981512755734</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="O19">
-        <v>1.004821355080959</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="P19">
-        <v>0.9986407834218972</v>
+        <v>1.206958409210526</v>
       </c>
       <c r="Q19">
-        <v>1.002038813916234</v>
+        <v>1.019342574473684</v>
       </c>
       <c r="R19">
-        <v>0.9983599060397893</v>
+        <v>1.010404393508772</v>
       </c>
       <c r="S19">
-        <v>0.9988459465317678</v>
+        <v>1.167352457368421</v>
       </c>
       <c r="T19">
-        <v>0.9983599060397893</v>
+        <v>1.010404393508772</v>
       </c>
       <c r="U19">
-        <v>0.9985839977177192</v>
+        <v>1.029838433552632</v>
       </c>
       <c r="V19">
-        <v>0.9984268284292901</v>
+        <v>0.947330019263158</v>
       </c>
       <c r="W19">
-        <v>0.9992927929232158</v>
+        <v>1.029341405855263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.016671253157895</v>
+      </c>
+      <c r="D20">
+        <v>0.9782923478947371</v>
+      </c>
+      <c r="E20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="F20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="G20">
+        <v>0.9553398905263157</v>
+      </c>
+      <c r="H20">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="I20">
+        <v>0.9468210921052629</v>
+      </c>
+      <c r="J20">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="K20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="L20">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="M20">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="N20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="O20">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="P20">
+        <v>0.9584299773684211</v>
+      </c>
+      <c r="Q20">
+        <v>0.9675428442105265</v>
+      </c>
+      <c r="R20">
+        <v>1.022177371754386</v>
+      </c>
+      <c r="S20">
+        <v>0.9650507675438598</v>
+      </c>
+      <c r="T20">
+        <v>1.022177371754386</v>
+      </c>
+      <c r="U20">
+        <v>1.011206115789474</v>
+      </c>
+      <c r="V20">
+        <v>1.038899324736842</v>
+      </c>
+      <c r="W20">
+        <v>1.000851320723684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.6357386469968241</v>
+      </c>
+      <c r="D21">
+        <v>1.200402461244877</v>
+      </c>
+      <c r="E21">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="F21">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="G21">
+        <v>1.62568492752117</v>
+      </c>
+      <c r="H21">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="I21">
+        <v>1.159279919901514</v>
+      </c>
+      <c r="J21">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="K21">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="L21">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="M21">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="N21">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="O21">
+        <v>0.7094658101932654</v>
+      </c>
+      <c r="P21">
+        <v>1.348378649876504</v>
+      </c>
+      <c r="Q21">
+        <v>0.954934135719071</v>
+      </c>
+      <c r="R21">
+        <v>1.047475124710399</v>
+      </c>
+      <c r="S21">
+        <v>1.299053253665961</v>
+      </c>
+      <c r="T21">
+        <v>1.0474751247104</v>
+      </c>
+      <c r="U21">
+        <v>1.085706958844019</v>
+      </c>
+      <c r="V21">
+        <v>0.9576991819508536</v>
+      </c>
+      <c r="W21">
+        <v>1.06803619893491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9111403904141306</v>
+      </c>
+      <c r="D22">
+        <v>1.059186727830439</v>
+      </c>
+      <c r="E22">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="F22">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="G22">
+        <v>1.155875155806751</v>
+      </c>
+      <c r="H22">
+        <v>0.9342608909187008</v>
+      </c>
+      <c r="I22">
+        <v>1.064226706261459</v>
+      </c>
+      <c r="J22">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="K22">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="L22">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="M22">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="N22">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="O22">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="P22">
+        <v>1.088466040544385</v>
+      </c>
+      <c r="Q22">
+        <v>1.008012168043335</v>
+      </c>
+      <c r="R22">
+        <v>0.9923456905742757</v>
+      </c>
+      <c r="S22">
+        <v>1.078706269639736</v>
+      </c>
+      <c r="T22">
+        <v>0.9923456905742757</v>
+      </c>
+      <c r="U22">
+        <v>1.009055949888316</v>
+      </c>
+      <c r="V22">
+        <v>0.9672657580374645</v>
+      </c>
+      <c r="W22">
+        <v>1.012715867869288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9972790170282894</v>
+      </c>
+      <c r="D23">
+        <v>1.004995445085638</v>
+      </c>
+      <c r="E23">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="F23">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="G23">
+        <v>0.9958031236306705</v>
+      </c>
+      <c r="H23">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="I23">
+        <v>0.99681547564494</v>
+      </c>
+      <c r="J23">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="K23">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="L23">
+        <v>0.9842976226294291</v>
+      </c>
+      <c r="M23">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="N23">
+        <v>1.012353087906899</v>
+      </c>
+      <c r="O23">
+        <v>0.9877932451931216</v>
+      </c>
+      <c r="P23">
+        <v>0.9860454339112754</v>
+      </c>
+      <c r="Q23">
+        <v>0.99639434513938</v>
+      </c>
+      <c r="R23">
+        <v>0.9948146519098167</v>
+      </c>
+      <c r="S23">
+        <v>0.9923621043027296</v>
+      </c>
+      <c r="T23">
+        <v>0.9948146519098165</v>
+      </c>
+      <c r="U23">
+        <v>0.9973598502037719</v>
+      </c>
+      <c r="V23">
+        <v>1.000358497744397</v>
+      </c>
+      <c r="W23">
+        <v>0.9986232422136043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.006771035746939</v>
+      </c>
+      <c r="D24">
+        <v>0.9911394897583976</v>
+      </c>
+      <c r="E24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="F24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="G24">
+        <v>0.9971331293955223</v>
+      </c>
+      <c r="H24">
+        <v>0.9937204182804564</v>
+      </c>
+      <c r="I24">
+        <v>0.9984600934298319</v>
+      </c>
+      <c r="J24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="K24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="L24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="M24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="N24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="O24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="P24">
+        <v>1.010326298366663</v>
+      </c>
+      <c r="Q24">
+        <v>1.001778420241033</v>
+      </c>
+      <c r="R24">
+        <v>1.007474036654008</v>
+      </c>
+      <c r="S24">
+        <v>1.003930695497241</v>
+      </c>
+      <c r="T24">
+        <v>1.007474036654008</v>
+      </c>
+      <c r="U24">
+        <v>1.003390399930105</v>
+      </c>
+      <c r="V24">
+        <v>1.003066222589824</v>
+      </c>
+      <c r="W24">
+        <v>1.001205784571646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.22329921287148</v>
+      </c>
+      <c r="D25">
+        <v>0.8517887348827914</v>
+      </c>
+      <c r="E25">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="F25">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="G25">
+        <v>0.5637947735520389</v>
+      </c>
+      <c r="H25">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="I25">
+        <v>0.7849336114244856</v>
+      </c>
+      <c r="J25">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="K25">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="L25">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="M25">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="N25">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="O25">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="P25">
+        <v>0.6988404893692196</v>
+      </c>
+      <c r="Q25">
+        <v>0.9390136661865496</v>
+      </c>
+      <c r="R25">
+        <v>1.021528336406987</v>
+      </c>
+      <c r="S25">
+        <v>0.7498232378737435</v>
+      </c>
+      <c r="T25">
+        <v>1.021528336406987</v>
+      </c>
+      <c r="U25">
+        <v>0.9790934360259383</v>
+      </c>
+      <c r="V25">
+        <v>1.116655554917255</v>
+      </c>
+      <c r="W25">
+        <v>0.964988231741003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.092236121868941</v>
+      </c>
+      <c r="D26">
+        <v>0.9567515541645539</v>
+      </c>
+      <c r="E26">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="F26">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="G26">
+        <v>0.8549211407442947</v>
+      </c>
+      <c r="H26">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="I26">
+        <v>0.9898121565226173</v>
+      </c>
+      <c r="J26">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="K26">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="L26">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="M26">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="N26">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="O26">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="P26">
+        <v>0.9335264313002551</v>
+      </c>
+      <c r="Q26">
+        <v>1.034542502054453</v>
+      </c>
+      <c r="R26">
+        <v>0.9738495079140858</v>
+      </c>
+      <c r="S26">
+        <v>0.941268138921688</v>
+      </c>
+      <c r="T26">
+        <v>0.9738495079140858</v>
+      </c>
+      <c r="U26">
+        <v>0.9695750194767028</v>
+      </c>
+      <c r="V26">
+        <v>0.9865591478097115</v>
+      </c>
+      <c r="W26">
+        <v>0.9808359324444008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.005074470613022</v>
+      </c>
+      <c r="D27">
+        <v>0.9974240907897551</v>
+      </c>
+      <c r="E27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="F27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="G27">
+        <v>0.9878427883755776</v>
+      </c>
+      <c r="H27">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="I27">
+        <v>0.9938605792199973</v>
+      </c>
+      <c r="J27">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="K27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="L27">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="M27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="N27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="O27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="P27">
+        <v>0.9889936201067369</v>
+      </c>
+      <c r="Q27">
+        <v>0.99766848130829</v>
+      </c>
+      <c r="R27">
+        <v>0.9992415749664548</v>
+      </c>
+      <c r="S27">
+        <v>0.9918037770010762</v>
+      </c>
+      <c r="T27">
+        <v>0.9992415749664548</v>
+      </c>
+      <c r="U27">
+        <v>0.9987872039222798</v>
+      </c>
+      <c r="V27">
+        <v>1.002977260075002</v>
+      </c>
+      <c r="W27">
+        <v>0.9987595709449805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9829310911594409</v>
+      </c>
+      <c r="D28">
+        <v>1.007513904896947</v>
+      </c>
+      <c r="E28">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="F28">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="G28">
+        <v>1.020928675025253</v>
+      </c>
+      <c r="H28">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="I28">
+        <v>0.9925700698006176</v>
+      </c>
+      <c r="J28">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="K28">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="L28">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="M28">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="N28">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="O28">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="P28">
+        <v>1.001801663635299</v>
+      </c>
+      <c r="Q28">
+        <v>0.9867605095696126</v>
+      </c>
+      <c r="R28">
+        <v>1.006546789748946</v>
+      </c>
+      <c r="S28">
+        <v>1.003705744055848</v>
+      </c>
+      <c r="T28">
+        <v>1.006546789748946</v>
+      </c>
+      <c r="U28">
+        <v>1.006788568535946</v>
+      </c>
+      <c r="V28">
+        <v>1.008638263224005</v>
+      </c>
+      <c r="W28">
+        <v>1.003463012179483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9539700631163177</v>
+      </c>
+      <c r="D29">
+        <v>1.016293047037452</v>
+      </c>
+      <c r="E29">
+        <v>0.9984126452817281</v>
+      </c>
+      <c r="F29">
+        <v>0.9984126452817281</v>
+      </c>
+      <c r="G29">
+        <v>1.072834824506651</v>
+      </c>
+      <c r="H29">
+        <v>0.9876167638481708</v>
+      </c>
+      <c r="I29">
+        <v>0.9944273701655993</v>
+      </c>
+      <c r="J29">
+        <v>1.136731254946343</v>
+      </c>
+      <c r="K29">
+        <v>0.9984126452817281</v>
+      </c>
+      <c r="L29">
+        <v>1.136731254946343</v>
+      </c>
+      <c r="M29">
+        <v>0.9334137017759986</v>
+      </c>
+      <c r="N29">
+        <v>0.9984126452817281</v>
+      </c>
+      <c r="O29">
+        <v>0.9334137017759986</v>
+      </c>
+      <c r="P29">
+        <v>1.035072478361171</v>
+      </c>
+      <c r="Q29">
+        <v>0.9748533744067254</v>
+      </c>
+      <c r="R29">
+        <v>1.022852534001357</v>
+      </c>
+      <c r="S29">
+        <v>1.028812667919931</v>
+      </c>
+      <c r="T29">
+        <v>1.022852534001357</v>
+      </c>
+      <c r="U29">
+        <v>1.021212662260381</v>
+      </c>
+      <c r="V29">
+        <v>1.01665265886465</v>
+      </c>
+      <c r="W29">
+        <v>1.011712458834783</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.020622774548412</v>
+        <v>1.030554051782185</v>
       </c>
       <c r="D4">
-        <v>0.9894994845444218</v>
+        <v>0.9839906515144051</v>
       </c>
       <c r="E4">
-        <v>0.9961711781089936</v>
+        <v>1.010632073398005</v>
       </c>
       <c r="F4">
-        <v>0.9961711781089936</v>
+        <v>1.010632073398005</v>
       </c>
       <c r="G4">
-        <v>0.9727083858652503</v>
+        <v>0.9558855347724781</v>
       </c>
       <c r="H4">
-        <v>0.9994425689629421</v>
+        <v>1.005101250207399</v>
       </c>
       <c r="I4">
-        <v>1.002995642995568</v>
+        <v>0.9988463577875769</v>
       </c>
       <c r="J4">
-        <v>0.9553015031043665</v>
+        <v>0.9288940756220727</v>
       </c>
       <c r="K4">
-        <v>0.9961711781089936</v>
+        <v>1.010632073398005</v>
       </c>
       <c r="L4">
-        <v>0.9553015031043665</v>
+        <v>0.9288940756220727</v>
       </c>
       <c r="M4">
-        <v>1.03372336807084</v>
+        <v>1.041987970143587</v>
       </c>
       <c r="N4">
-        <v>0.9961711781089936</v>
+        <v>1.010632073398005</v>
       </c>
       <c r="O4">
-        <v>1.03372336807084</v>
+        <v>1.041987970143587</v>
       </c>
       <c r="P4">
-        <v>0.9945124355876029</v>
+        <v>0.98544102288283</v>
       </c>
       <c r="Q4">
-        <v>1.011611426307631</v>
+        <v>1.012989310828996</v>
       </c>
       <c r="R4">
-        <v>0.9950653497613998</v>
+        <v>0.9938380397212215</v>
       </c>
       <c r="S4">
-        <v>0.9928414519065426</v>
+        <v>0.9849575657600217</v>
       </c>
       <c r="T4">
-        <v>0.9950653497613998</v>
+        <v>0.9938380397212215</v>
       </c>
       <c r="U4">
-        <v>0.9936738834571553</v>
+        <v>0.9913761926695174</v>
       </c>
       <c r="V4">
-        <v>0.994173342387523</v>
+        <v>0.9952273688152149</v>
       </c>
       <c r="W4">
-        <v>0.9963081132750993</v>
+        <v>0.9944864956534637</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.032481552067721</v>
+        <v>1.013615424979588</v>
       </c>
       <c r="D5">
-        <v>0.9825416063040371</v>
+        <v>0.9787787558854281</v>
       </c>
       <c r="E5">
-        <v>1.011427917658503</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="F5">
-        <v>1.011427917658503</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="G5">
-        <v>0.9536566257420754</v>
+        <v>0.9516066533321355</v>
       </c>
       <c r="H5">
-        <v>1.004892683386165</v>
+        <v>1.055722173225175</v>
       </c>
       <c r="I5">
-        <v>0.9985658590273825</v>
+        <v>0.934497101450411</v>
       </c>
       <c r="J5">
-        <v>0.9264285433573491</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="K5">
-        <v>1.011427917658503</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="L5">
-        <v>0.9264285433573491</v>
+        <v>0.9565206442981622</v>
       </c>
       <c r="M5">
-        <v>1.044775427384725</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="N5">
-        <v>1.011427917658503</v>
+        <v>1.185041148226768</v>
       </c>
       <c r="O5">
-        <v>1.044775427384725</v>
+        <v>0.9348891019861739</v>
       </c>
       <c r="P5">
-        <v>0.9856019853710369</v>
+        <v>0.945704873142168</v>
       </c>
       <c r="Q5">
-        <v>1.013658516844381</v>
+        <v>0.956833928935801</v>
       </c>
       <c r="R5">
-        <v>0.994210629466859</v>
+        <v>1.025483631503701</v>
       </c>
       <c r="S5">
-        <v>0.9845818590153703</v>
+        <v>0.9567295007232547</v>
       </c>
       <c r="T5">
-        <v>0.994210629466859</v>
+        <v>1.025483631503701</v>
       </c>
       <c r="U5">
-        <v>0.9912933736761536</v>
+        <v>1.013807412599133</v>
       </c>
       <c r="V5">
-        <v>0.9953202824726235</v>
+        <v>1.04805415972466</v>
       </c>
       <c r="W5">
-        <v>0.9943462768659947</v>
+        <v>1.00133387542298</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.126384448686586</v>
+        <v>1.020622774548412</v>
       </c>
       <c r="D6">
-        <v>0.9341197602781596</v>
+        <v>0.9894994845444218</v>
       </c>
       <c r="E6">
-        <v>0.9839852873261863</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="F6">
-        <v>0.9839852873261863</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="G6">
-        <v>0.8328564109007748</v>
+        <v>0.9727083858652503</v>
       </c>
       <c r="H6">
-        <v>0.9975545077515375</v>
+        <v>0.9994425689629421</v>
       </c>
       <c r="I6">
-        <v>1.015266349467207</v>
+        <v>1.002995642995568</v>
       </c>
       <c r="J6">
-        <v>0.7301794765563091</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="K6">
-        <v>0.9839852873261863</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="L6">
-        <v>0.7301794765563091</v>
+        <v>0.9553015031043665</v>
       </c>
       <c r="M6">
-        <v>1.203606203526724</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="N6">
-        <v>0.9839852873261863</v>
+        <v>0.9961711781089936</v>
       </c>
       <c r="O6">
-        <v>1.203606203526724</v>
+        <v>1.03372336807084</v>
       </c>
       <c r="P6">
-        <v>0.9668928400415164</v>
+        <v>0.9945124355876029</v>
       </c>
       <c r="Q6">
-        <v>1.068862981902442</v>
+        <v>1.011611426307631</v>
       </c>
       <c r="R6">
-        <v>0.9725903224697398</v>
+        <v>0.9950653497613998</v>
       </c>
       <c r="S6">
-        <v>0.9559684801203975</v>
+        <v>0.9928414519065426</v>
       </c>
       <c r="T6">
-        <v>0.9725903224697398</v>
+        <v>0.9950653497613998</v>
       </c>
       <c r="U6">
-        <v>0.9629726819218447</v>
+        <v>0.9936738834571553</v>
       </c>
       <c r="V6">
-        <v>0.9671752030027131</v>
+        <v>0.994173342387523</v>
       </c>
       <c r="W6">
-        <v>0.9779940555616855</v>
+        <v>0.9963081132750993</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001418925130225</v>
+        <v>1.032481552067721</v>
       </c>
       <c r="D7">
-        <v>0.9985922629471237</v>
+        <v>0.9825416063040371</v>
       </c>
       <c r="E7">
-        <v>1.008824318959857</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="F7">
-        <v>1.008824318959857</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="G7">
-        <v>0.9966404637511538</v>
+        <v>0.9536566257420754</v>
       </c>
       <c r="H7">
-        <v>1.002688211395009</v>
+        <v>1.004892683386165</v>
       </c>
       <c r="I7">
-        <v>0.9969403889855959</v>
+        <v>0.9985658590273825</v>
       </c>
       <c r="J7">
-        <v>0.9962118585906424</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="K7">
-        <v>1.008824318959857</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="L7">
-        <v>0.9962118585906424</v>
+        <v>0.9264285433573491</v>
       </c>
       <c r="M7">
-        <v>0.9980844768910373</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="N7">
-        <v>1.008824318959857</v>
+        <v>1.011427917658503</v>
       </c>
       <c r="O7">
-        <v>0.9980844768910373</v>
+        <v>1.044775427384725</v>
       </c>
       <c r="P7">
-        <v>0.9971481677408398</v>
+        <v>0.9856019853710369</v>
       </c>
       <c r="Q7">
-        <v>0.9983383699190804</v>
+        <v>1.013658516844381</v>
       </c>
       <c r="R7">
-        <v>1.001040218147179</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="S7">
-        <v>0.9976295328096011</v>
+        <v>0.9845818590153703</v>
       </c>
       <c r="T7">
-        <v>1.001040218147179</v>
+        <v>0.994210629466859</v>
       </c>
       <c r="U7">
-        <v>1.000428229347165</v>
+        <v>0.9912933736761536</v>
       </c>
       <c r="V7">
-        <v>1.002107447269704</v>
+        <v>0.9953202824726235</v>
       </c>
       <c r="W7">
-        <v>0.9999251133313306</v>
+        <v>0.9943462768659947</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999902994057901</v>
+        <v>1.126384448686586</v>
       </c>
       <c r="D8">
-        <v>0.9998587890594165</v>
+        <v>0.9341197602781596</v>
       </c>
       <c r="E8">
-        <v>1.001250920401314</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="F8">
-        <v>1.001250920401314</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="G8">
-        <v>0.9998720467588212</v>
+        <v>0.8328564109007748</v>
       </c>
       <c r="H8">
-        <v>1.00030345129486</v>
+        <v>0.9975545077515375</v>
       </c>
       <c r="I8">
-        <v>0.9995401336008881</v>
+        <v>1.015266349467207</v>
       </c>
       <c r="J8">
-        <v>1.000142786748788</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="K8">
-        <v>1.001250920401314</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="L8">
-        <v>1.000142786748788</v>
+        <v>0.7301794765563091</v>
       </c>
       <c r="M8">
-        <v>0.9994329870525496</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="N8">
-        <v>1.001250920401314</v>
+        <v>0.9839852873261863</v>
       </c>
       <c r="O8">
-        <v>0.9994329870525496</v>
+        <v>1.203606203526724</v>
       </c>
       <c r="P8">
-        <v>0.999787886900669</v>
+        <v>0.9668928400415164</v>
       </c>
       <c r="Q8">
-        <v>0.9996458880559831</v>
+        <v>1.068862981902442</v>
       </c>
       <c r="R8">
-        <v>1.000275564734217</v>
+        <v>0.9725903224697398</v>
       </c>
       <c r="S8">
-        <v>0.9998115209535848</v>
+        <v>0.9559684801203975</v>
       </c>
       <c r="T8">
-        <v>1.000275564734217</v>
+        <v>0.9725903224697398</v>
       </c>
       <c r="U8">
-        <v>1.000171370815517</v>
+        <v>0.9629726819218447</v>
       </c>
       <c r="V8">
-        <v>1.000387280732677</v>
+        <v>0.9671752030027131</v>
       </c>
       <c r="W8">
-        <v>1.000048926790303</v>
+        <v>0.9779940555616855</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002406834468507</v>
+        <v>1.001418925130225</v>
       </c>
       <c r="D9">
-        <v>0.9976374295971374</v>
+        <v>0.9985922629471237</v>
       </c>
       <c r="E9">
-        <v>1.014508918581146</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="F9">
-        <v>1.014508918581146</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="G9">
-        <v>0.9943899021710558</v>
+        <v>0.9966404637511538</v>
       </c>
       <c r="H9">
-        <v>1.00441020513607</v>
+        <v>1.002688211395009</v>
       </c>
       <c r="I9">
-        <v>0.9949699586434895</v>
+        <v>0.9969403889855959</v>
       </c>
       <c r="J9">
-        <v>0.9936588932057756</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="K9">
-        <v>1.014508918581146</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="L9">
-        <v>0.9936588932057756</v>
+        <v>0.9962118585906424</v>
       </c>
       <c r="M9">
-        <v>0.9969679277897998</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="N9">
-        <v>1.014508918581146</v>
+        <v>1.008824318959857</v>
       </c>
       <c r="O9">
-        <v>0.9969679277897998</v>
+        <v>0.9980844768910373</v>
       </c>
       <c r="P9">
-        <v>0.9953134104977877</v>
+        <v>0.9971481677408398</v>
       </c>
       <c r="Q9">
-        <v>0.9973026786934687</v>
+        <v>0.9983383699190804</v>
       </c>
       <c r="R9">
-        <v>1.001711913192241</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="S9">
-        <v>0.9960880835309043</v>
+        <v>0.9976295328096011</v>
       </c>
       <c r="T9">
-        <v>1.001711913192241</v>
+        <v>1.001040218147179</v>
       </c>
       <c r="U9">
-        <v>1.000693292293465</v>
+        <v>1.000428229347165</v>
       </c>
       <c r="V9">
-        <v>1.003456417551001</v>
+        <v>1.002107447269704</v>
       </c>
       <c r="W9">
-        <v>0.9998687586991226</v>
+        <v>0.9999251133313306</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.129317414790299</v>
+        <v>0.9999902994057901</v>
       </c>
       <c r="D10">
-        <v>0.9324175989848534</v>
+        <v>0.9998587890594165</v>
       </c>
       <c r="E10">
-        <v>0.9814880882666068</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="F10">
-        <v>0.9814880882666068</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="G10">
-        <v>0.8297667347938126</v>
+        <v>0.9998720467588212</v>
       </c>
       <c r="H10">
-        <v>0.9964176305307255</v>
+        <v>1.00030345129486</v>
       </c>
       <c r="I10">
-        <v>1.0162632842884</v>
+        <v>0.9995401336008881</v>
       </c>
       <c r="J10">
-        <v>0.7256473233777079</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="K10">
-        <v>0.9814880882666068</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="L10">
-        <v>0.7256473233777079</v>
+        <v>1.000142786748788</v>
       </c>
       <c r="M10">
-        <v>1.209478596736624</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="N10">
-        <v>0.9814880882666068</v>
+        <v>1.001250920401314</v>
       </c>
       <c r="O10">
-        <v>1.209478596736624</v>
+        <v>0.9994329870525496</v>
       </c>
       <c r="P10">
-        <v>0.9675629600571658</v>
+        <v>0.999787886900669</v>
       </c>
       <c r="Q10">
-        <v>1.070948097860739</v>
+        <v>0.9996458880559831</v>
       </c>
       <c r="R10">
-        <v>0.9722046694603129</v>
+        <v>1.000275564734217</v>
       </c>
       <c r="S10">
-        <v>0.9558478396997283</v>
+        <v>0.9998115209535848</v>
       </c>
       <c r="T10">
-        <v>0.9722046694603129</v>
+        <v>1.000275564734217</v>
       </c>
       <c r="U10">
-        <v>0.962257901841448</v>
+        <v>1.000171370815517</v>
       </c>
       <c r="V10">
-        <v>0.9661039391264797</v>
+        <v>1.000387280732677</v>
       </c>
       <c r="W10">
-        <v>0.9775995839711287</v>
+        <v>1.000048926790303</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.089423723036214</v>
+        <v>1.002406834468507</v>
       </c>
       <c r="D11">
-        <v>0.9498084201819667</v>
+        <v>0.9976374295971374</v>
       </c>
       <c r="E11">
-        <v>1.121944962721527</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="F11">
-        <v>1.121944962721527</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="G11">
-        <v>0.8514965833354478</v>
+        <v>0.9943899021710558</v>
       </c>
       <c r="H11">
-        <v>1.046873434226879</v>
+        <v>1.00441020513607</v>
       </c>
       <c r="I11">
-        <v>0.9651404975795658</v>
+        <v>0.9949699586434895</v>
       </c>
       <c r="J11">
-        <v>0.7686179678919673</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="K11">
-        <v>1.121944962721527</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="L11">
-        <v>0.7686179678919673</v>
+        <v>0.9936588932057756</v>
       </c>
       <c r="M11">
-        <v>1.078817616479539</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="N11">
-        <v>1.121944962721527</v>
+        <v>1.014508918581146</v>
       </c>
       <c r="O11">
-        <v>1.078817616479539</v>
+        <v>0.9969679277897998</v>
       </c>
       <c r="P11">
-        <v>0.9237177921857533</v>
+        <v>0.9953134104977877</v>
       </c>
       <c r="Q11">
-        <v>1.014313018330753</v>
+        <v>0.9973026786934687</v>
       </c>
       <c r="R11">
-        <v>0.9897935156976779</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="S11">
-        <v>0.932414668184491</v>
+        <v>0.9960880835309043</v>
       </c>
       <c r="T11">
-        <v>0.9897935156976779</v>
+        <v>1.001711913192241</v>
       </c>
       <c r="U11">
-        <v>0.9797972418187501</v>
+        <v>1.000693292293465</v>
       </c>
       <c r="V11">
-        <v>1.008226785999305</v>
+        <v>1.003456417551001</v>
       </c>
       <c r="W11">
-        <v>0.9840154006816384</v>
+        <v>0.9998687586991226</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.041329447568419</v>
+        <v>1.129317414790299</v>
       </c>
       <c r="D12">
-        <v>0.9782266595684213</v>
+        <v>0.9324175989848534</v>
       </c>
       <c r="E12">
-        <v>0.9999361497473674</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="F12">
-        <v>0.9999361497473674</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="G12">
-        <v>0.9442856264947375</v>
+        <v>0.8297667347938126</v>
       </c>
       <c r="H12">
-        <v>1.000965343557895</v>
+        <v>0.9964176305307255</v>
       </c>
       <c r="I12">
-        <v>1.003191149463161</v>
+        <v>1.0162632842884</v>
       </c>
       <c r="J12">
-        <v>0.9106085826526302</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="K12">
-        <v>0.9999361497473674</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="L12">
-        <v>0.9106085826526302</v>
+        <v>0.7256473233777079</v>
       </c>
       <c r="M12">
-        <v>1.064095110673683</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="N12">
-        <v>0.9999361497473674</v>
+        <v>0.9814880882666068</v>
       </c>
       <c r="O12">
-        <v>1.064095110673683</v>
+        <v>1.209478596736624</v>
       </c>
       <c r="P12">
-        <v>0.9873518466631567</v>
+        <v>0.9675629600571658</v>
       </c>
       <c r="Q12">
-        <v>1.021160885121052</v>
+        <v>1.070948097860739</v>
       </c>
       <c r="R12">
-        <v>0.9915466143578936</v>
+        <v>0.9722046694603129</v>
       </c>
       <c r="S12">
-        <v>0.9843101176315782</v>
+        <v>0.9558478396997283</v>
       </c>
       <c r="T12">
-        <v>0.9915466143578936</v>
+        <v>0.9722046694603129</v>
       </c>
       <c r="U12">
-        <v>0.9882166256605256</v>
+        <v>0.962257901841448</v>
       </c>
       <c r="V12">
-        <v>0.9905605304778939</v>
+        <v>0.9661039391264797</v>
       </c>
       <c r="W12">
-        <v>0.9928297587157893</v>
+        <v>0.9775995839711287</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9846558389662474</v>
+        <v>1.089423723036214</v>
       </c>
       <c r="D13">
-        <v>1.007524504419261</v>
+        <v>0.9498084201819667</v>
       </c>
       <c r="E13">
-        <v>0.9783477298494805</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="F13">
-        <v>0.9783477298494805</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="G13">
-        <v>1.027120713480766</v>
+        <v>0.8514965833354478</v>
       </c>
       <c r="H13">
-        <v>0.9902249856618901</v>
+        <v>1.046873434226879</v>
       </c>
       <c r="I13">
-        <v>1.005821484749387</v>
+        <v>0.9651404975795658</v>
       </c>
       <c r="J13">
-        <v>1.045129919038737</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="K13">
-        <v>0.9783477298494805</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="L13">
-        <v>1.045129919038737</v>
+        <v>0.7686179678919673</v>
       </c>
       <c r="M13">
-        <v>0.9873469206918554</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="N13">
-        <v>0.9783477298494805</v>
+        <v>1.121944962721527</v>
       </c>
       <c r="O13">
-        <v>0.9873469206918554</v>
+        <v>1.078817616479539</v>
       </c>
       <c r="P13">
-        <v>1.016238419865296</v>
+        <v>0.9237177921857533</v>
       </c>
       <c r="Q13">
-        <v>0.9974357125555582</v>
+        <v>1.014313018330753</v>
       </c>
       <c r="R13">
-        <v>1.003608189860024</v>
+        <v>0.9897935156976779</v>
       </c>
       <c r="S13">
-        <v>1.013333781383284</v>
+        <v>0.932414668184491</v>
       </c>
       <c r="T13">
-        <v>1.003608189860024</v>
+        <v>0.9897935156976779</v>
       </c>
       <c r="U13">
-        <v>1.004587268499833</v>
+        <v>0.9797972418187501</v>
       </c>
       <c r="V13">
-        <v>0.9993393607697628</v>
+        <v>1.008226785999305</v>
       </c>
       <c r="W13">
-        <v>1.003271512107203</v>
+        <v>0.9840154006816384</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.225409299999999</v>
+        <v>1.041329447568419</v>
       </c>
       <c r="D14">
-        <v>0.8825002800000008</v>
+        <v>0.9782266595684213</v>
       </c>
       <c r="E14">
-        <v>0.9618347199999993</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="F14">
-        <v>0.9618347199999993</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="G14">
-        <v>0.7044202900000011</v>
+        <v>0.9442856264947375</v>
       </c>
       <c r="H14">
-        <v>0.9917943100000015</v>
+        <v>1.000965343557895</v>
       </c>
       <c r="I14">
-        <v>1.030420399999999</v>
+        <v>1.003191149463161</v>
       </c>
       <c r="J14">
-        <v>0.5229061699999994</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="K14">
-        <v>0.9618347199999993</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="L14">
-        <v>0.5229061699999994</v>
+        <v>0.9106085826526302</v>
       </c>
       <c r="M14">
-        <v>1.367955899999999</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="N14">
-        <v>0.9618347199999993</v>
+        <v>0.9999361497473674</v>
       </c>
       <c r="O14">
-        <v>1.367955899999999</v>
+        <v>1.064095110673683</v>
       </c>
       <c r="P14">
-        <v>0.9454310349999993</v>
+        <v>0.9873518466631567</v>
       </c>
       <c r="Q14">
-        <v>1.12522809</v>
+        <v>1.021160885121052</v>
       </c>
       <c r="R14">
-        <v>0.9508989299999993</v>
+        <v>0.9915466143578936</v>
       </c>
       <c r="S14">
-        <v>0.9244541166666664</v>
+        <v>0.9843101176315782</v>
       </c>
       <c r="T14">
-        <v>0.9508989299999993</v>
+        <v>0.9915466143578936</v>
       </c>
       <c r="U14">
-        <v>0.9337992674999996</v>
+        <v>0.9882166256605256</v>
       </c>
       <c r="V14">
-        <v>0.9394063579999996</v>
+        <v>0.9905605304778939</v>
       </c>
       <c r="W14">
-        <v>0.9609051712499999</v>
+        <v>0.9928297587157893</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.44749343</v>
+        <v>0.9846558389662474</v>
       </c>
       <c r="D15">
-        <v>1.280454</v>
+        <v>1.007524504419261</v>
       </c>
       <c r="E15">
-        <v>0.25020352</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="F15">
-        <v>0.25020352</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="G15">
-        <v>1.9579371</v>
+        <v>1.027120713480766</v>
       </c>
       <c r="H15">
-        <v>0.67340451</v>
+        <v>0.9902249856618901</v>
       </c>
       <c r="I15">
-        <v>1.2003094</v>
+        <v>1.005821484749387</v>
       </c>
       <c r="J15">
-        <v>2.5748425</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="K15">
-        <v>0.25020352</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="L15">
-        <v>2.5748425</v>
+        <v>1.045129919038737</v>
       </c>
       <c r="M15">
-        <v>0.5229061699999999</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="N15">
-        <v>0.25020352</v>
+        <v>0.9783477298494805</v>
       </c>
       <c r="O15">
-        <v>0.5229061699999999</v>
+        <v>0.9873469206918554</v>
       </c>
       <c r="P15">
-        <v>1.548874335</v>
+        <v>1.016238419865296</v>
       </c>
       <c r="Q15">
-        <v>0.901680085</v>
+        <v>0.9974357125555582</v>
       </c>
       <c r="R15">
-        <v>1.115984063333333</v>
+        <v>1.003608189860024</v>
       </c>
       <c r="S15">
-        <v>1.45940089</v>
+        <v>1.013333781383284</v>
       </c>
       <c r="T15">
-        <v>1.115984063333333</v>
+        <v>1.003608189860024</v>
       </c>
       <c r="U15">
-        <v>1.1571015475</v>
+        <v>1.004587268499833</v>
       </c>
       <c r="V15">
-        <v>0.9757219420000001</v>
+        <v>0.9993393607697628</v>
       </c>
       <c r="W15">
-        <v>1.11344382875</v>
+        <v>1.003271512107203</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,64 +1600,64 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2254093</v>
+        <v>1.225409299999999</v>
       </c>
       <c r="D16">
-        <v>0.88250028</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="E16">
-        <v>0.9618347200000001</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="F16">
-        <v>0.9618347200000001</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="G16">
-        <v>0.7044202899999999</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="H16">
-        <v>0.99179431</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="I16">
-        <v>1.0304204</v>
+        <v>1.030420399999999</v>
       </c>
       <c r="J16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="K16">
-        <v>0.9618347200000001</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="M16">
-        <v>1.3679559</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="N16">
-        <v>0.9618347200000001</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="O16">
-        <v>1.3679559</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="P16">
-        <v>0.9454310349999998</v>
+        <v>0.9454310349999993</v>
       </c>
       <c r="Q16">
         <v>1.12522809</v>
       </c>
       <c r="R16">
-        <v>0.9508989299999998</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="S16">
-        <v>0.9244541166666665</v>
+        <v>0.9244541166666664</v>
       </c>
       <c r="T16">
-        <v>0.9508989299999998</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="U16">
-        <v>0.9337992674999999</v>
+        <v>0.9337992674999996</v>
       </c>
       <c r="V16">
-        <v>0.9394063579999999</v>
+        <v>0.9394063579999996</v>
       </c>
       <c r="W16">
         <v>0.9609051712499999</v>
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.62482423</v>
+        <v>0.44749343</v>
       </c>
       <c r="D17">
-        <v>1.2080974</v>
+        <v>1.280454</v>
       </c>
       <c r="E17">
-        <v>0.4163156499999999</v>
+        <v>0.25020352</v>
       </c>
       <c r="F17">
-        <v>0.4163156499999999</v>
+        <v>0.25020352</v>
       </c>
       <c r="G17">
-        <v>1.6449084</v>
+        <v>1.9579371</v>
       </c>
       <c r="H17">
-        <v>0.7710542500000002</v>
+        <v>0.67340451</v>
       </c>
       <c r="I17">
-        <v>1.1698683</v>
+        <v>1.2003094</v>
       </c>
       <c r="J17">
-        <v>2.0119774</v>
+        <v>2.5748425</v>
       </c>
       <c r="K17">
-        <v>0.4163156499999999</v>
+        <v>0.25020352</v>
       </c>
       <c r="L17">
-        <v>2.0119774</v>
+        <v>2.5748425</v>
       </c>
       <c r="M17">
-        <v>0.70705465</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="N17">
-        <v>0.4163156499999999</v>
+        <v>0.25020352</v>
       </c>
       <c r="O17">
-        <v>0.70705465</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P17">
-        <v>1.359516025</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q17">
-        <v>0.9575760250000001</v>
+        <v>0.901680085</v>
       </c>
       <c r="R17">
-        <v>1.0451159</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S17">
-        <v>1.30904315</v>
+        <v>1.45940089</v>
       </c>
       <c r="T17">
-        <v>1.0451159</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U17">
-        <v>1.085861275</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V17">
-        <v>0.95195215</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W17">
-        <v>1.069262535</v>
+        <v>1.11344382875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018749359041096</v>
+        <v>1.2254093</v>
       </c>
       <c r="D18">
-        <v>0.9767775873972597</v>
+        <v>0.88250028</v>
       </c>
       <c r="E18">
-        <v>1.16713988</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F18">
-        <v>1.16713988</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G18">
-        <v>0.9484801917808225</v>
+        <v>0.7044202899999999</v>
       </c>
       <c r="H18">
-        <v>1.049626037671233</v>
+        <v>0.99179431</v>
       </c>
       <c r="I18">
-        <v>0.9410582575342465</v>
+        <v>1.0304204</v>
       </c>
       <c r="J18">
-        <v>0.949923395068493</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K18">
-        <v>1.16713988</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="L18">
-        <v>0.949923395068493</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="M18">
-        <v>0.9514722727397256</v>
+        <v>1.3679559</v>
       </c>
       <c r="N18">
-        <v>1.16713988</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="O18">
-        <v>0.9514722727397256</v>
+        <v>1.3679559</v>
       </c>
       <c r="P18">
-        <v>0.9506978339041092</v>
+        <v>0.9454310349999998</v>
       </c>
       <c r="Q18">
-        <v>0.9641249300684926</v>
+        <v>1.12522809</v>
       </c>
       <c r="R18">
-        <v>1.02284518260274</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="S18">
-        <v>0.9593910850684928</v>
+        <v>0.9244541166666665</v>
       </c>
       <c r="T18">
-        <v>1.02284518260274</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="U18">
-        <v>1.01132828380137</v>
+        <v>0.9337992674999999</v>
       </c>
       <c r="V18">
-        <v>1.042490603041096</v>
+        <v>0.9394063579999999</v>
       </c>
       <c r="W18">
-        <v>1.00040337265411</v>
+        <v>0.9609051712499999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8460924236842106</v>
+        <v>0.62482423</v>
       </c>
       <c r="D19">
-        <v>1.088140553684211</v>
+        <v>1.2080974</v>
       </c>
       <c r="E19">
-        <v>0.6172963621052632</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="F19">
-        <v>0.6172963621052632</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="G19">
-        <v>1.298412787368421</v>
+        <v>1.6449084</v>
       </c>
       <c r="H19">
-        <v>0.8523795331578947</v>
+        <v>0.7710542500000002</v>
       </c>
       <c r="I19">
-        <v>1.118492768421053</v>
+        <v>1.1698683</v>
       </c>
       <c r="J19">
-        <v>1.463372223157895</v>
+        <v>2.0119774</v>
       </c>
       <c r="K19">
-        <v>0.6172963621052632</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="L19">
-        <v>1.463372223157895</v>
+        <v>2.0119774</v>
       </c>
       <c r="M19">
-        <v>0.9505445952631577</v>
+        <v>0.70705465</v>
       </c>
       <c r="N19">
-        <v>0.6172963621052632</v>
+        <v>0.4163156499999999</v>
       </c>
       <c r="O19">
-        <v>0.9505445952631577</v>
+        <v>0.70705465</v>
       </c>
       <c r="P19">
-        <v>1.206958409210526</v>
+        <v>1.359516025</v>
       </c>
       <c r="Q19">
-        <v>1.019342574473684</v>
+        <v>0.9575760250000001</v>
       </c>
       <c r="R19">
-        <v>1.010404393508772</v>
+        <v>1.0451159</v>
       </c>
       <c r="S19">
-        <v>1.167352457368421</v>
+        <v>1.30904315</v>
       </c>
       <c r="T19">
-        <v>1.010404393508772</v>
+        <v>1.0451159</v>
       </c>
       <c r="U19">
-        <v>1.029838433552632</v>
+        <v>1.085861275</v>
       </c>
       <c r="V19">
-        <v>0.947330019263158</v>
+        <v>0.95195215</v>
       </c>
       <c r="W19">
-        <v>1.029341405855263</v>
+        <v>1.069262535</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.016671253157895</v>
+        <v>1.018749359041096</v>
       </c>
       <c r="D20">
-        <v>0.9782923478947371</v>
+        <v>0.9767775873972597</v>
       </c>
       <c r="E20">
-        <v>1.149672160526316</v>
+        <v>1.16713988</v>
       </c>
       <c r="F20">
-        <v>1.149672160526316</v>
+        <v>1.16713988</v>
       </c>
       <c r="G20">
-        <v>0.9553398905263157</v>
+        <v>0.9484801917808225</v>
       </c>
       <c r="H20">
-        <v>1.043153866842105</v>
+        <v>1.049626037671233</v>
       </c>
       <c r="I20">
-        <v>0.9468210921052629</v>
+        <v>0.9410582575342465</v>
       </c>
       <c r="J20">
-        <v>0.9600666142105262</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="K20">
-        <v>1.149672160526316</v>
+        <v>1.16713988</v>
       </c>
       <c r="L20">
-        <v>0.9600666142105262</v>
+        <v>0.949923395068493</v>
       </c>
       <c r="M20">
-        <v>0.9567933405263159</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="N20">
-        <v>1.149672160526316</v>
+        <v>1.16713988</v>
       </c>
       <c r="O20">
-        <v>0.9567933405263159</v>
+        <v>0.9514722727397256</v>
       </c>
       <c r="P20">
-        <v>0.9584299773684211</v>
+        <v>0.9506978339041092</v>
       </c>
       <c r="Q20">
-        <v>0.9675428442105265</v>
+        <v>0.9641249300684926</v>
       </c>
       <c r="R20">
-        <v>1.022177371754386</v>
+        <v>1.02284518260274</v>
       </c>
       <c r="S20">
-        <v>0.9650507675438598</v>
+        <v>0.9593910850684928</v>
       </c>
       <c r="T20">
-        <v>1.022177371754386</v>
+        <v>1.02284518260274</v>
       </c>
       <c r="U20">
-        <v>1.011206115789474</v>
+        <v>1.01132828380137</v>
       </c>
       <c r="V20">
-        <v>1.038899324736842</v>
+        <v>1.042490603041096</v>
       </c>
       <c r="W20">
-        <v>1.000851320723684</v>
+        <v>1.00040337265411</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6357386469968241</v>
+        <v>0.8460924236842106</v>
       </c>
       <c r="D21">
-        <v>1.200402461244877</v>
+        <v>1.088140553684211</v>
       </c>
       <c r="E21">
-        <v>0.4456680743781916</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="F21">
-        <v>0.4456680743781916</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="G21">
-        <v>1.62568492752117</v>
+        <v>1.298412787368421</v>
       </c>
       <c r="H21">
-        <v>0.7807582616836947</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="I21">
-        <v>1.159279919901514</v>
+        <v>1.118492768421053</v>
       </c>
       <c r="J21">
-        <v>1.987291489559742</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="K21">
-        <v>0.4456680743781916</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="L21">
-        <v>1.987291489559742</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="M21">
-        <v>0.7094658101932654</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="N21">
-        <v>0.4456680743781916</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="O21">
-        <v>0.7094658101932654</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="P21">
-        <v>1.348378649876504</v>
+        <v>1.206958409210526</v>
       </c>
       <c r="Q21">
-        <v>0.954934135719071</v>
+        <v>1.019342574473684</v>
       </c>
       <c r="R21">
-        <v>1.047475124710399</v>
+        <v>1.010404393508772</v>
       </c>
       <c r="S21">
-        <v>1.299053253665961</v>
+        <v>1.167352457368421</v>
       </c>
       <c r="T21">
-        <v>1.0474751247104</v>
+        <v>1.010404393508772</v>
       </c>
       <c r="U21">
-        <v>1.085706958844019</v>
+        <v>1.029838433552632</v>
       </c>
       <c r="V21">
-        <v>0.9576991819508536</v>
+        <v>0.947330019263158</v>
       </c>
       <c r="W21">
-        <v>1.06803619893491</v>
+        <v>1.029341405855263</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9111403904141306</v>
+        <v>1.016671253157895</v>
       </c>
       <c r="D22">
-        <v>1.059186727830439</v>
+        <v>0.9782923478947371</v>
       </c>
       <c r="E22">
-        <v>0.8001049906340567</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="F22">
-        <v>0.8001049906340567</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="G22">
-        <v>1.155875155806751</v>
+        <v>0.9553398905263157</v>
       </c>
       <c r="H22">
-        <v>0.9342608909187008</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="I22">
-        <v>1.064226706261459</v>
+        <v>0.9468210921052629</v>
       </c>
       <c r="J22">
-        <v>1.220094472832538</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="K22">
-        <v>0.8001049906340567</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="L22">
-        <v>1.220094472832538</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="M22">
-        <v>0.956837608256232</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="N22">
-        <v>0.8001049906340567</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="O22">
-        <v>0.956837608256232</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="P22">
-        <v>1.088466040544385</v>
+        <v>0.9584299773684211</v>
       </c>
       <c r="Q22">
-        <v>1.008012168043335</v>
+        <v>0.9675428442105265</v>
       </c>
       <c r="R22">
-        <v>0.9923456905742757</v>
+        <v>1.022177371754386</v>
       </c>
       <c r="S22">
-        <v>1.078706269639736</v>
+        <v>0.9650507675438598</v>
       </c>
       <c r="T22">
-        <v>0.9923456905742757</v>
+        <v>1.022177371754386</v>
       </c>
       <c r="U22">
-        <v>1.009055949888316</v>
+        <v>1.011206115789474</v>
       </c>
       <c r="V22">
-        <v>0.9672657580374645</v>
+        <v>1.038899324736842</v>
       </c>
       <c r="W22">
-        <v>1.012715867869288</v>
+        <v>1.000851320723684</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9972790170282894</v>
+        <v>0.6357386469968241</v>
       </c>
       <c r="D23">
-        <v>1.004995445085638</v>
+        <v>1.200402461244877</v>
       </c>
       <c r="E23">
-        <v>1.012353087906899</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="F23">
-        <v>1.012353087906899</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="G23">
-        <v>0.9958031236306705</v>
+        <v>1.62568492752117</v>
       </c>
       <c r="H23">
-        <v>1.009648920589846</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="I23">
-        <v>0.99681547564494</v>
+        <v>1.159279919901514</v>
       </c>
       <c r="J23">
-        <v>0.9842976226294291</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="K23">
-        <v>1.012353087906899</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="L23">
-        <v>0.9842976226294291</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="M23">
-        <v>0.9877932451931216</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="N23">
-        <v>1.012353087906899</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="O23">
-        <v>0.9877932451931216</v>
+        <v>0.7094658101932654</v>
       </c>
       <c r="P23">
-        <v>0.9860454339112754</v>
+        <v>1.348378649876504</v>
       </c>
       <c r="Q23">
-        <v>0.99639434513938</v>
+        <v>0.954934135719071</v>
       </c>
       <c r="R23">
-        <v>0.9948146519098167</v>
+        <v>1.047475124710399</v>
       </c>
       <c r="S23">
-        <v>0.9923621043027296</v>
+        <v>1.299053253665961</v>
       </c>
       <c r="T23">
-        <v>0.9948146519098165</v>
+        <v>1.0474751247104</v>
       </c>
       <c r="U23">
-        <v>0.9973598502037719</v>
+        <v>1.085706958844019</v>
       </c>
       <c r="V23">
-        <v>1.000358497744397</v>
+        <v>0.9576991819508536</v>
       </c>
       <c r="W23">
-        <v>0.9986232422136043</v>
+        <v>1.06803619893491</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.006771035746939</v>
+        <v>0.9111403904141306</v>
       </c>
       <c r="D24">
-        <v>0.9911394897583976</v>
+        <v>1.059186727830439</v>
       </c>
       <c r="E24">
-        <v>1.001769513228698</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="F24">
-        <v>1.001769513228698</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="G24">
-        <v>0.9971331293955223</v>
+        <v>1.155875155806751</v>
       </c>
       <c r="H24">
-        <v>0.9937204182804564</v>
+        <v>0.9342608909187008</v>
       </c>
       <c r="I24">
-        <v>0.9984600934298319</v>
+        <v>1.064226706261459</v>
       </c>
       <c r="J24">
-        <v>1.008235246009658</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="K24">
-        <v>1.001769513228698</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="L24">
-        <v>1.008235246009658</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="M24">
-        <v>1.012417350723668</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="N24">
-        <v>1.001769513228698</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="O24">
-        <v>1.012417350723668</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="P24">
-        <v>1.010326298366663</v>
+        <v>1.088466040544385</v>
       </c>
       <c r="Q24">
-        <v>1.001778420241033</v>
+        <v>1.008012168043335</v>
       </c>
       <c r="R24">
-        <v>1.007474036654008</v>
+        <v>0.9923456905742757</v>
       </c>
       <c r="S24">
-        <v>1.003930695497241</v>
+        <v>1.078706269639736</v>
       </c>
       <c r="T24">
-        <v>1.007474036654008</v>
+        <v>0.9923456905742757</v>
       </c>
       <c r="U24">
-        <v>1.003390399930105</v>
+        <v>1.009055949888316</v>
       </c>
       <c r="V24">
-        <v>1.003066222589824</v>
+        <v>0.9672657580374645</v>
       </c>
       <c r="W24">
-        <v>1.001205784571646</v>
+        <v>1.012715867869288</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.22329921287148</v>
+        <v>0.9972790170282894</v>
       </c>
       <c r="D25">
-        <v>0.8517887348827914</v>
+        <v>1.004995445085638</v>
       </c>
       <c r="E25">
-        <v>1.666904030482522</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="F25">
-        <v>1.666904030482522</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="G25">
-        <v>0.5637947735520389</v>
+        <v>0.9958031236306705</v>
       </c>
       <c r="H25">
-        <v>1.231504511976268</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="I25">
-        <v>0.7849336114244856</v>
+        <v>0.99681547564494</v>
       </c>
       <c r="J25">
-        <v>0.3714423812481314</v>
+        <v>0.9842976226294291</v>
       </c>
       <c r="K25">
-        <v>1.666904030482522</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="L25">
-        <v>0.3714423812481314</v>
+        <v>0.9842976226294291</v>
       </c>
       <c r="M25">
-        <v>1.026238597490308</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="N25">
-        <v>1.666904030482522</v>
+        <v>1.012353087906899</v>
       </c>
       <c r="O25">
-        <v>1.026238597490308</v>
+        <v>0.9877932451931216</v>
       </c>
       <c r="P25">
-        <v>0.6988404893692196</v>
+        <v>0.9860454339112754</v>
       </c>
       <c r="Q25">
-        <v>0.9390136661865496</v>
+        <v>0.99639434513938</v>
       </c>
       <c r="R25">
-        <v>1.021528336406987</v>
+        <v>0.9948146519098167</v>
       </c>
       <c r="S25">
-        <v>0.7498232378737435</v>
+        <v>0.9923621043027296</v>
       </c>
       <c r="T25">
-        <v>1.021528336406987</v>
+        <v>0.9948146519098165</v>
       </c>
       <c r="U25">
-        <v>0.9790934360259383</v>
+        <v>0.9973598502037719</v>
       </c>
       <c r="V25">
-        <v>1.116655554917255</v>
+        <v>1.000358497744397</v>
       </c>
       <c r="W25">
-        <v>0.964988231741003</v>
+        <v>0.9986232422136043</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.092236121868941</v>
+        <v>1.006771035746939</v>
       </c>
       <c r="D26">
-        <v>0.9567515541645539</v>
+        <v>0.9911394897583976</v>
       </c>
       <c r="E26">
-        <v>1.054495661141747</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="F26">
-        <v>1.054495661141747</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="G26">
-        <v>0.8549211407442947</v>
+        <v>0.9971331293955223</v>
       </c>
       <c r="H26">
-        <v>1.031417962512543</v>
+        <v>0.9937204182804564</v>
       </c>
       <c r="I26">
-        <v>0.9898121565226173</v>
+        <v>0.9984600934298319</v>
       </c>
       <c r="J26">
-        <v>0.7547194126561589</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="K26">
-        <v>1.054495661141747</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="L26">
-        <v>0.7547194126561589</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="M26">
-        <v>1.112333449944351</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="N26">
-        <v>1.054495661141747</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="O26">
-        <v>1.112333449944351</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="P26">
-        <v>0.9335264313002551</v>
+        <v>1.010326298366663</v>
       </c>
       <c r="Q26">
-        <v>1.034542502054453</v>
+        <v>1.001778420241033</v>
       </c>
       <c r="R26">
-        <v>0.9738495079140858</v>
+        <v>1.007474036654008</v>
       </c>
       <c r="S26">
-        <v>0.941268138921688</v>
+        <v>1.003930695497241</v>
       </c>
       <c r="T26">
-        <v>0.9738495079140858</v>
+        <v>1.007474036654008</v>
       </c>
       <c r="U26">
-        <v>0.9695750194767028</v>
+        <v>1.003390399930105</v>
       </c>
       <c r="V26">
-        <v>0.9865591478097115</v>
+        <v>1.003066222589824</v>
       </c>
       <c r="W26">
-        <v>0.9808359324444008</v>
+        <v>1.001205784571646</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.005074470613022</v>
+        <v>1.22329921287148</v>
       </c>
       <c r="D27">
-        <v>0.9974240907897551</v>
+        <v>0.8517887348827914</v>
       </c>
       <c r="E27">
-        <v>1.01973748468589</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="F27">
-        <v>1.01973748468589</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="G27">
-        <v>0.9878427883755776</v>
+        <v>0.5637947735520389</v>
       </c>
       <c r="H27">
-        <v>1.008149913662128</v>
+        <v>1.231504511976268</v>
       </c>
       <c r="I27">
-        <v>0.9938605792199973</v>
+        <v>0.7849336114244856</v>
       </c>
       <c r="J27">
-        <v>0.9800743683866489</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="K27">
-        <v>1.01973748468589</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="L27">
-        <v>0.9800743683866489</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="M27">
-        <v>0.9979128718268249</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="N27">
-        <v>1.01973748468589</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="O27">
-        <v>0.9979128718268249</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="P27">
-        <v>0.9889936201067369</v>
+        <v>0.6988404893692196</v>
       </c>
       <c r="Q27">
-        <v>0.99766848130829</v>
+        <v>0.9390136661865496</v>
       </c>
       <c r="R27">
-        <v>0.9992415749664548</v>
+        <v>1.021528336406987</v>
       </c>
       <c r="S27">
-        <v>0.9918037770010762</v>
+        <v>0.7498232378737435</v>
       </c>
       <c r="T27">
-        <v>0.9992415749664548</v>
+        <v>1.021528336406987</v>
       </c>
       <c r="U27">
-        <v>0.9987872039222798</v>
+        <v>0.9790934360259383</v>
       </c>
       <c r="V27">
-        <v>1.002977260075002</v>
+        <v>1.116655554917255</v>
       </c>
       <c r="W27">
-        <v>0.9987595709449805</v>
+        <v>0.964988231741003</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9829310911594409</v>
+        <v>1.092236121868941</v>
       </c>
       <c r="D28">
-        <v>1.007513904896947</v>
+        <v>0.9567515541645539</v>
       </c>
       <c r="E28">
-        <v>1.016037041976239</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="F28">
-        <v>1.016037041976239</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="G28">
-        <v>1.020928675025253</v>
+        <v>0.8549211407442947</v>
       </c>
       <c r="H28">
-        <v>1.004119987306768</v>
+        <v>1.031417962512543</v>
       </c>
       <c r="I28">
-        <v>0.9925700698006176</v>
+        <v>0.9898121565226173</v>
       </c>
       <c r="J28">
-        <v>1.03759621302832</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="K28">
-        <v>1.016037041976239</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="L28">
-        <v>1.03759621302832</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="M28">
-        <v>0.9660071142422785</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="N28">
-        <v>1.016037041976239</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="O28">
-        <v>0.9660071142422785</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="P28">
-        <v>1.001801663635299</v>
+        <v>0.9335264313002551</v>
       </c>
       <c r="Q28">
-        <v>0.9867605095696126</v>
+        <v>1.034542502054453</v>
       </c>
       <c r="R28">
-        <v>1.006546789748946</v>
+        <v>0.9738495079140858</v>
       </c>
       <c r="S28">
-        <v>1.003705744055848</v>
+        <v>0.941268138921688</v>
       </c>
       <c r="T28">
-        <v>1.006546789748946</v>
+        <v>0.9738495079140858</v>
       </c>
       <c r="U28">
-        <v>1.006788568535946</v>
+        <v>0.9695750194767028</v>
       </c>
       <c r="V28">
-        <v>1.008638263224005</v>
+        <v>0.9865591478097115</v>
       </c>
       <c r="W28">
-        <v>1.003463012179483</v>
+        <v>0.9808359324444008</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.005074470613022</v>
+      </c>
+      <c r="D29">
+        <v>0.9974240907897551</v>
+      </c>
+      <c r="E29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="F29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="G29">
+        <v>0.9878427883755776</v>
+      </c>
+      <c r="H29">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="I29">
+        <v>0.9938605792199973</v>
+      </c>
+      <c r="J29">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="K29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="L29">
+        <v>0.9800743683866489</v>
+      </c>
+      <c r="M29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="N29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="O29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="P29">
+        <v>0.9889936201067369</v>
+      </c>
+      <c r="Q29">
+        <v>0.99766848130829</v>
+      </c>
+      <c r="R29">
+        <v>0.9992415749664548</v>
+      </c>
+      <c r="S29">
+        <v>0.9918037770010762</v>
+      </c>
+      <c r="T29">
+        <v>0.9992415749664548</v>
+      </c>
+      <c r="U29">
+        <v>0.9987872039222798</v>
+      </c>
+      <c r="V29">
+        <v>1.002977260075002</v>
+      </c>
+      <c r="W29">
+        <v>0.9987595709449805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9829310911594409</v>
+      </c>
+      <c r="D30">
+        <v>1.007513904896947</v>
+      </c>
+      <c r="E30">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="F30">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="G30">
+        <v>1.020928675025253</v>
+      </c>
+      <c r="H30">
+        <v>1.004119987306768</v>
+      </c>
+      <c r="I30">
+        <v>0.9925700698006176</v>
+      </c>
+      <c r="J30">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="K30">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="L30">
+        <v>1.03759621302832</v>
+      </c>
+      <c r="M30">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="N30">
+        <v>1.016037041976239</v>
+      </c>
+      <c r="O30">
+        <v>0.9660071142422785</v>
+      </c>
+      <c r="P30">
+        <v>1.001801663635299</v>
+      </c>
+      <c r="Q30">
+        <v>0.9867605095696126</v>
+      </c>
+      <c r="R30">
+        <v>1.006546789748946</v>
+      </c>
+      <c r="S30">
+        <v>1.003705744055848</v>
+      </c>
+      <c r="T30">
+        <v>1.006546789748946</v>
+      </c>
+      <c r="U30">
+        <v>1.006788568535946</v>
+      </c>
+      <c r="V30">
+        <v>1.008638263224005</v>
+      </c>
+      <c r="W30">
+        <v>1.003463012179483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9539700631163177</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.016293047037452</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9984126452817281</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9984126452817281</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.072834824506651</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9876167638481708</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9944273701655993</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.136731254946343</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9984126452817281</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.136731254946343</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9334137017759986</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9984126452817281</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9334137017759986</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.035072478361171</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9748533744067254</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.022852534001357</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.028812667919931</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.022852534001357</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.021212662260381</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.01665265886465</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.011712458834783</v>
       </c>
     </row>
